--- a/data/dpo_app_data.xlsx
+++ b/data/dpo_app_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="795">
   <si>
     <t xml:space="preserve">study_author_year</t>
   </si>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">15.05 (1.14)</t>
   </si>
   <si>
-    <t xml:space="preserve">UP-A</t>
+    <t xml:space="preserve">Unified Protocol for Transdiagnostic Treatment of Emotional Disorders in Adolescents (UP-A)</t>
   </si>
   <si>
     <t xml:space="preserve">Waitlist</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">14.56 (0.97)</t>
   </si>
   <si>
-    <t xml:space="preserve">Experimental Intervention</t>
+    <t xml:space="preserve">"Implicit theory of personality" intervention</t>
   </si>
   <si>
     <t xml:space="preserve">Active: Control intervention</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">11.8 (0.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">RAP-A-ASD</t>
+    <t xml:space="preserve">Resourceful Adolescent Program-Autism Spectrum Disorder (RAP-A-ASD)</t>
   </si>
   <si>
     <t xml:space="preserve">6, 7</t>
@@ -723,7 +723,7 @@
     <t xml:space="preserve">13.35 (0.71)</t>
   </si>
   <si>
-    <t xml:space="preserve">OVK; SPARX; OVK &amp; SPARX</t>
+    <t xml:space="preserve">Op Volle Kracht (OVK); SPARX; OVK &amp; SPARX</t>
   </si>
   <si>
     <t xml:space="preserve">100%</t>
@@ -864,9 +864,6 @@
     <t xml:space="preserve">599 students, 3 schools</t>
   </si>
   <si>
-    <t xml:space="preserve">intervention</t>
-  </si>
-  <si>
     <t xml:space="preserve">Active: Control</t>
   </si>
   <si>
@@ -936,7 +933,7 @@
     <t xml:space="preserve">13.42 (0.77)</t>
   </si>
   <si>
-    <t xml:space="preserve">OVK</t>
+    <t xml:space="preserve">Op Volle Kracht (OVK)</t>
   </si>
   <si>
     <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24837666/</t>
@@ -960,7 +957,7 @@
     <t xml:space="preserve">15.4 (1.2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mindfulness condition</t>
+    <t xml:space="preserve">Mindfulness group training</t>
   </si>
   <si>
     <t xml:space="preserve">9, 10, 11, 12</t>
@@ -994,7 +991,7 @@
     <t xml:space="preserve">12.22 (0.77)</t>
   </si>
   <si>
-    <t xml:space="preserve">RAP-PIR</t>
+    <t xml:space="preserve">Resourceful Adolescent Program - Peer Interpersonal Relatedness (RAP-PIR)</t>
   </si>
   <si>
     <t xml:space="preserve">Active: RAP-Placebo program; Waitlist</t>
@@ -1066,7 +1063,7 @@
     <t xml:space="preserve">11.51 (10.91)</t>
   </si>
   <si>
-    <t xml:space="preserve">UKPR</t>
+    <t xml:space="preserve">UK Resilience Programme (UKRP)</t>
   </si>
   <si>
     <t xml:space="preserve">Quasi-experimental design</t>
@@ -1180,7 +1177,7 @@
     <t xml:space="preserve">19 students, 1 schools</t>
   </si>
   <si>
-    <t xml:space="preserve">CWD-A</t>
+    <t xml:space="preserve">Adolescent Coping with Depression (CWD-A)</t>
   </si>
   <si>
     <t xml:space="preserve">5, 6, 7, 8</t>
@@ -1276,7 +1273,7 @@
     <t xml:space="preserve">711 students, 1 schools</t>
   </si>
   <si>
-    <t xml:space="preserve">RAP-UK</t>
+    <t xml:space="preserve">Resourceful Adolescent Program adapted for the UK (RAP-UK)</t>
   </si>
   <si>
     <t xml:space="preserve">Attention Control; TAU</t>
@@ -1438,7 +1435,7 @@
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiwi ACE program</t>
+    <t xml:space="preserve">Kiwi - Adolescents Coping with Emotions (Kiwi-ACE)</t>
   </si>
   <si>
     <t xml:space="preserve">0% AIAN, 0% Asian, 0% Black, 0% Latinx, 100% NHPI, 0% White, 0% Mixed, 0% Other</t>
@@ -1630,7 +1627,7 @@
     <t xml:space="preserve">2,664 students, 12 schools</t>
   </si>
   <si>
-    <t xml:space="preserve">RAP-A; RAP-F</t>
+    <t xml:space="preserve">Resourceful Adolescent Program - Adolescents (RAP-A); Resourceful Adolescent Program - Family (RAP-F)</t>
   </si>
   <si>
     <t xml:space="preserve">https://psycnet.apa.org/record/2009-08717-006</t>
@@ -1943,7 +1940,7 @@
     <t xml:space="preserve">14.2 (0.65)</t>
   </si>
   <si>
-    <t xml:space="preserve">RAP-Kiwi</t>
+    <t xml:space="preserve">Resourceful Adolescent Program-New Zealand version (RAP-Kiwi)</t>
   </si>
   <si>
     <t xml:space="preserve">Active: Placebo program</t>
@@ -1994,7 +1991,7 @@
     <t xml:space="preserve">13.58 (0.61)</t>
   </si>
   <si>
-    <t xml:space="preserve">RAP Program</t>
+    <t xml:space="preserve">Resourceful Adolescent Program (RAP)</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.sciencedirect.com/science/article/abs/pii/S0022440504000676</t>
@@ -2173,7 +2170,7 @@
     <t xml:space="preserve">10.44 (0.69)</t>
   </si>
   <si>
-    <t xml:space="preserve">Normal Penn group; Reversed Penn Group</t>
+    <t xml:space="preserve">Penn Prevention Program</t>
   </si>
   <si>
     <t xml:space="preserve">https://psycnet.apa.org/record/2002-10530-003</t>
@@ -2222,9 +2219,6 @@
     <t xml:space="preserve">13.49 (0.54)</t>
   </si>
   <si>
-    <t xml:space="preserve">RAP–A; RAP-F</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cluster (Not reported)</t>
   </si>
   <si>
@@ -2409,9 +2403,6 @@
   </si>
   <si>
     <t xml:space="preserve">15.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preventive Health Class</t>
   </si>
 </sst>
 </file>
@@ -4370,10 +4361,10 @@
         <v>33</v>
       </c>
       <c r="L21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" t="s">
         <v>283</v>
-      </c>
-      <c r="M21" t="s">
-        <v>284</v>
       </c>
       <c r="N21" t="s">
         <v>145</v>
@@ -4397,7 +4388,7 @@
         <v>33</v>
       </c>
       <c r="U21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V21" t="s">
         <v>92</v>
@@ -4406,27 +4397,27 @@
         <v>205</v>
       </c>
       <c r="X21" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y21" t="s">
         <v>286</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>287</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" t="s">
         <v>289</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>290</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>291</v>
-      </c>
-      <c r="D22" t="s">
-        <v>292</v>
       </c>
       <c r="E22" t="s">
         <v>52</v>
@@ -4441,16 +4432,16 @@
         <v>71</v>
       </c>
       <c r="I22" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" t="s">
         <v>293</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>294</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>295</v>
-      </c>
-      <c r="L22" t="s">
-        <v>296</v>
       </c>
       <c r="M22" t="s">
         <v>59</v>
@@ -4465,19 +4456,19 @@
         <v>60</v>
       </c>
       <c r="Q22" t="s">
+        <v>296</v>
+      </c>
+      <c r="R22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" t="s">
         <v>297</v>
-      </c>
-      <c r="R22" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" t="s">
-        <v>33</v>
-      </c>
-      <c r="T22" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22" t="s">
-        <v>298</v>
       </c>
       <c r="V22" t="s">
         <v>122</v>
@@ -4489,7 +4480,7 @@
         <v>46</v>
       </c>
       <c r="Y22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z22" t="s">
         <v>228</v>
@@ -4497,40 +4488,40 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" t="s">
         <v>300</v>
       </c>
-      <c r="B23" t="s">
-        <v>290</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>301</v>
-      </c>
-      <c r="D23" t="s">
-        <v>302</v>
       </c>
       <c r="E23" t="s">
         <v>232</v>
       </c>
       <c r="F23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" t="s">
         <v>303</v>
       </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>304</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>305</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>306</v>
-      </c>
-      <c r="L23" t="s">
-        <v>307</v>
       </c>
       <c r="M23" t="s">
         <v>59</v>
@@ -4569,22 +4560,22 @@
         <v>46</v>
       </c>
       <c r="Y23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" t="s">
         <v>309</v>
       </c>
-      <c r="B24" t="s">
-        <v>290</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>310</v>
-      </c>
-      <c r="D24" t="s">
-        <v>311</v>
       </c>
       <c r="E24" t="s">
         <v>186</v>
@@ -4599,16 +4590,16 @@
         <v>33</v>
       </c>
       <c r="I24" t="s">
+        <v>311</v>
+      </c>
+      <c r="J24" t="s">
         <v>312</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>313</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>314</v>
-      </c>
-      <c r="L24" t="s">
-        <v>315</v>
       </c>
       <c r="M24" t="s">
         <v>259</v>
@@ -4635,7 +4626,7 @@
         <v>33</v>
       </c>
       <c r="U24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V24" t="s">
         <v>92</v>
@@ -4647,30 +4638,30 @@
         <v>46</v>
       </c>
       <c r="Y24" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z24" t="s">
         <v>317</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" t="s">
         <v>319</v>
       </c>
-      <c r="B25" t="s">
-        <v>290</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>320</v>
-      </c>
-      <c r="D25" t="s">
-        <v>321</v>
       </c>
       <c r="E25" t="s">
         <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -4679,19 +4670,19 @@
         <v>269</v>
       </c>
       <c r="I25" t="s">
+        <v>322</v>
+      </c>
+      <c r="J25" t="s">
         <v>323</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>324</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>325</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>326</v>
-      </c>
-      <c r="M25" t="s">
-        <v>327</v>
       </c>
       <c r="N25" t="s">
         <v>89</v>
@@ -4703,10 +4694,10 @@
         <v>41</v>
       </c>
       <c r="Q25" t="s">
+        <v>327</v>
+      </c>
+      <c r="R25" t="s">
         <v>328</v>
-      </c>
-      <c r="R25" t="s">
-        <v>329</v>
       </c>
       <c r="S25" t="s">
         <v>33</v>
@@ -4727,30 +4718,30 @@
         <v>46</v>
       </c>
       <c r="Y25" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z25" t="s">
         <v>330</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" t="s">
         <v>332</v>
       </c>
-      <c r="B26" t="s">
-        <v>290</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>333</v>
-      </c>
-      <c r="D26" t="s">
-        <v>334</v>
       </c>
       <c r="E26" t="s">
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -4759,22 +4750,22 @@
         <v>269</v>
       </c>
       <c r="I26" t="s">
+        <v>335</v>
+      </c>
+      <c r="J26" t="s">
         <v>336</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
         <v>337</v>
-      </c>
-      <c r="K26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" t="s">
-        <v>338</v>
       </c>
       <c r="M26" t="s">
         <v>259</v>
       </c>
       <c r="N26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O26" t="s">
         <v>40</v>
@@ -4783,7 +4774,7 @@
         <v>60</v>
       </c>
       <c r="Q26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R26" t="s">
         <v>33</v>
@@ -4807,33 +4798,33 @@
         <v>46</v>
       </c>
       <c r="Y26" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z26" t="s">
         <v>341</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>342</v>
+      </c>
+      <c r="B27" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" t="s">
         <v>343</v>
       </c>
-      <c r="B27" t="s">
-        <v>290</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>344</v>
-      </c>
-      <c r="D27" t="s">
-        <v>345</v>
       </c>
       <c r="E27" t="s">
         <v>98</v>
       </c>
       <c r="F27" t="s">
+        <v>345</v>
+      </c>
+      <c r="G27" t="s">
         <v>346</v>
-      </c>
-      <c r="G27" t="s">
-        <v>347</v>
       </c>
       <c r="H27" t="s">
         <v>33</v>
@@ -4842,13 +4833,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s">
+        <v>347</v>
+      </c>
+      <c r="K27" t="s">
         <v>348</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>349</v>
-      </c>
-      <c r="L27" t="s">
-        <v>350</v>
       </c>
       <c r="M27" t="s">
         <v>59</v>
@@ -4857,7 +4848,7 @@
         <v>39</v>
       </c>
       <c r="O27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P27" t="s">
         <v>41</v>
@@ -4866,13 +4857,13 @@
         <v>90</v>
       </c>
       <c r="R27" t="s">
+        <v>351</v>
+      </c>
+      <c r="S27" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" t="s">
         <v>352</v>
-      </c>
-      <c r="S27" t="s">
-        <v>33</v>
-      </c>
-      <c r="T27" t="s">
-        <v>353</v>
       </c>
       <c r="U27" t="s">
         <v>33</v>
@@ -4887,27 +4878,27 @@
         <v>46</v>
       </c>
       <c r="Y27" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z27" t="s">
         <v>354</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" t="s">
         <v>356</v>
       </c>
-      <c r="B28" t="s">
-        <v>290</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>357</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>358</v>
-      </c>
-      <c r="E28" t="s">
-        <v>359</v>
       </c>
       <c r="F28" t="s">
         <v>53</v>
@@ -4919,25 +4910,25 @@
         <v>33</v>
       </c>
       <c r="I28" t="s">
+        <v>359</v>
+      </c>
+      <c r="J28" t="s">
         <v>360</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>361</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>362</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>363</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>364</v>
       </c>
-      <c r="N28" t="s">
-        <v>365</v>
-      </c>
       <c r="O28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P28" t="s">
         <v>60</v>
@@ -4955,40 +4946,40 @@
         <v>33</v>
       </c>
       <c r="U28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V28" t="s">
         <v>45</v>
       </c>
       <c r="W28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X28" t="s">
         <v>46</v>
       </c>
       <c r="Y28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" t="s">
         <v>367</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>368</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>369</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>370</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>371</v>
-      </c>
-      <c r="F29" t="s">
-        <v>372</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -5000,16 +4991,16 @@
         <v>270</v>
       </c>
       <c r="J29" t="s">
+        <v>372</v>
+      </c>
+      <c r="K29" t="s">
         <v>373</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>374</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>375</v>
-      </c>
-      <c r="M29" t="s">
-        <v>376</v>
       </c>
       <c r="N29" t="s">
         <v>89</v>
@@ -5021,10 +5012,10 @@
         <v>77</v>
       </c>
       <c r="Q29" t="s">
+        <v>376</v>
+      </c>
+      <c r="R29" t="s">
         <v>377</v>
-      </c>
-      <c r="R29" t="s">
-        <v>378</v>
       </c>
       <c r="S29" t="s">
         <v>33</v>
@@ -5042,30 +5033,30 @@
         <v>205</v>
       </c>
       <c r="X29" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y29" t="s">
         <v>379</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>380</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>381</v>
+      </c>
+      <c r="B30" t="s">
+        <v>367</v>
+      </c>
+      <c r="C30" t="s">
         <v>382</v>
       </c>
-      <c r="B30" t="s">
-        <v>368</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>383</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>384</v>
-      </c>
-      <c r="E30" t="s">
-        <v>385</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
@@ -5077,16 +5068,16 @@
         <v>269</v>
       </c>
       <c r="I30" t="s">
+        <v>385</v>
+      </c>
+      <c r="J30" t="s">
         <v>386</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
         <v>387</v>
-      </c>
-      <c r="K30" t="s">
-        <v>33</v>
-      </c>
-      <c r="L30" t="s">
-        <v>388</v>
       </c>
       <c r="M30" t="s">
         <v>59</v>
@@ -5113,7 +5104,7 @@
         <v>33</v>
       </c>
       <c r="U30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V30" t="s">
         <v>274</v>
@@ -5122,33 +5113,33 @@
         <v>205</v>
       </c>
       <c r="X30" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y30" t="s">
         <v>390</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>391</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>392</v>
+      </c>
+      <c r="B31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" t="s">
         <v>393</v>
       </c>
-      <c r="B31" t="s">
-        <v>368</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>394</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>395</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>396</v>
-      </c>
-      <c r="F31" t="s">
-        <v>397</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -5157,16 +5148,16 @@
         <v>71</v>
       </c>
       <c r="I31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J31" t="s">
+        <v>397</v>
+      </c>
+      <c r="K31" t="s">
         <v>398</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>399</v>
-      </c>
-      <c r="L31" t="s">
-        <v>400</v>
       </c>
       <c r="M31" t="s">
         <v>59</v>
@@ -5181,7 +5172,7 @@
         <v>60</v>
       </c>
       <c r="Q31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R31" t="s">
         <v>33</v>
@@ -5193,36 +5184,36 @@
         <v>33</v>
       </c>
       <c r="U31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V31" t="s">
         <v>45</v>
       </c>
       <c r="W31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="X31" t="s">
         <v>46</v>
       </c>
       <c r="Y31" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z31" t="s">
         <v>401</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" t="s">
         <v>403</v>
       </c>
-      <c r="B32" t="s">
-        <v>368</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>404</v>
-      </c>
-      <c r="D32" t="s">
-        <v>405</v>
       </c>
       <c r="E32" t="s">
         <v>267</v>
@@ -5240,16 +5231,16 @@
         <v>281</v>
       </c>
       <c r="J32" t="s">
+        <v>405</v>
+      </c>
+      <c r="K32" t="s">
         <v>406</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>407</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>408</v>
-      </c>
-      <c r="M32" t="s">
-        <v>409</v>
       </c>
       <c r="N32" t="s">
         <v>89</v>
@@ -5261,19 +5252,19 @@
         <v>41</v>
       </c>
       <c r="Q32" t="s">
+        <v>409</v>
+      </c>
+      <c r="R32" t="s">
         <v>410</v>
       </c>
-      <c r="R32" t="s">
-        <v>411</v>
-      </c>
       <c r="S32" t="s">
         <v>33</v>
       </c>
       <c r="T32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V32" t="s">
         <v>92</v>
@@ -5285,54 +5276,54 @@
         <v>33</v>
       </c>
       <c r="Y32" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z32" t="s">
         <v>412</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>413</v>
+      </c>
+      <c r="B33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" t="s">
         <v>414</v>
       </c>
-      <c r="B33" t="s">
-        <v>368</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>415</v>
-      </c>
-      <c r="D33" t="s">
-        <v>416</v>
       </c>
       <c r="E33" t="s">
         <v>98</v>
       </c>
       <c r="F33" t="s">
+        <v>416</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s">
         <v>417</v>
       </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>418</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" t="s">
         <v>419</v>
       </c>
-      <c r="K33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>420</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>421</v>
-      </c>
-      <c r="N33" t="s">
-        <v>422</v>
       </c>
       <c r="O33" t="s">
         <v>40</v>
@@ -5353,7 +5344,7 @@
         <v>33</v>
       </c>
       <c r="U33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V33" t="s">
         <v>45</v>
@@ -5365,54 +5356,54 @@
         <v>46</v>
       </c>
       <c r="Y33" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z33" t="s">
         <v>424</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C34" t="s">
+        <v>414</v>
+      </c>
+      <c r="D34" t="s">
         <v>415</v>
-      </c>
-      <c r="D34" t="s">
-        <v>416</v>
       </c>
       <c r="E34" t="s">
         <v>98</v>
       </c>
       <c r="F34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s">
         <v>427</v>
       </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>428</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>429</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
+        <v>419</v>
+      </c>
+      <c r="M34" t="s">
+        <v>420</v>
+      </c>
+      <c r="N34" t="s">
         <v>430</v>
-      </c>
-      <c r="L34" t="s">
-        <v>420</v>
-      </c>
-      <c r="M34" t="s">
-        <v>421</v>
-      </c>
-      <c r="N34" t="s">
-        <v>431</v>
       </c>
       <c r="O34" t="s">
         <v>40</v>
@@ -5424,16 +5415,16 @@
         <v>33</v>
       </c>
       <c r="R34" t="s">
+        <v>431</v>
+      </c>
+      <c r="S34" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" t="s">
         <v>432</v>
       </c>
-      <c r="S34" t="s">
-        <v>33</v>
-      </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>433</v>
-      </c>
-      <c r="U34" t="s">
-        <v>434</v>
       </c>
       <c r="V34" t="s">
         <v>45</v>
@@ -5445,30 +5436,30 @@
         <v>46</v>
       </c>
       <c r="Y34" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z34" t="s">
         <v>424</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>434</v>
+      </c>
+      <c r="B35" t="s">
         <v>435</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>436</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>437</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>438</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>439</v>
-      </c>
-      <c r="F35" t="s">
-        <v>440</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
@@ -5480,22 +5471,22 @@
         <v>55</v>
       </c>
       <c r="J35" t="s">
+        <v>440</v>
+      </c>
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
         <v>441</v>
-      </c>
-      <c r="K35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" t="s">
-        <v>442</v>
       </c>
       <c r="M35" t="s">
         <v>38</v>
       </c>
       <c r="N35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P35" t="s">
         <v>77</v>
@@ -5519,36 +5510,36 @@
         <v>62</v>
       </c>
       <c r="W35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="X35" t="s">
         <v>46</v>
       </c>
       <c r="Y35" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z35" t="s">
         <v>443</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>444</v>
+      </c>
+      <c r="B36" t="s">
         <v>445</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>446</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>447</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>370</v>
+      </c>
+      <c r="F36" t="s">
         <v>448</v>
-      </c>
-      <c r="E36" t="s">
-        <v>371</v>
-      </c>
-      <c r="F36" t="s">
-        <v>449</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -5557,16 +5548,16 @@
         <v>71</v>
       </c>
       <c r="I36" t="s">
+        <v>449</v>
+      </c>
+      <c r="J36" t="s">
         <v>450</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>451</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>452</v>
-      </c>
-      <c r="L36" t="s">
-        <v>453</v>
       </c>
       <c r="M36" t="s">
         <v>59</v>
@@ -5581,19 +5572,19 @@
         <v>77</v>
       </c>
       <c r="Q36" t="s">
+        <v>453</v>
+      </c>
+      <c r="R36" t="s">
         <v>454</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" t="s">
+        <v>33</v>
+      </c>
+      <c r="U36" t="s">
         <v>455</v>
-      </c>
-      <c r="S36" t="s">
-        <v>33</v>
-      </c>
-      <c r="T36" t="s">
-        <v>33</v>
-      </c>
-      <c r="U36" t="s">
-        <v>456</v>
       </c>
       <c r="V36" t="s">
         <v>274</v>
@@ -5602,30 +5593,30 @@
         <v>205</v>
       </c>
       <c r="X36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Y36" t="s">
+        <v>456</v>
+      </c>
+      <c r="Z36" t="s">
         <v>457</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>458</v>
+      </c>
+      <c r="B37" t="s">
+        <v>445</v>
+      </c>
+      <c r="C37" t="s">
         <v>459</v>
       </c>
-      <c r="B37" t="s">
-        <v>446</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>460</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>461</v>
-      </c>
-      <c r="E37" t="s">
-        <v>462</v>
       </c>
       <c r="F37" t="s">
         <v>53</v>
@@ -5637,16 +5628,16 @@
         <v>71</v>
       </c>
       <c r="I37" t="s">
+        <v>462</v>
+      </c>
+      <c r="J37" t="s">
         <v>463</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
         <v>464</v>
-      </c>
-      <c r="K37" t="s">
-        <v>33</v>
-      </c>
-      <c r="L37" t="s">
-        <v>465</v>
       </c>
       <c r="M37" t="s">
         <v>38</v>
@@ -5673,39 +5664,39 @@
         <v>33</v>
       </c>
       <c r="U37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V37" t="s">
         <v>45</v>
       </c>
       <c r="W37" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X37" t="s">
         <v>46</v>
       </c>
       <c r="Y37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Z37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>467</v>
+      </c>
+      <c r="B38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C38" t="s">
         <v>468</v>
       </c>
-      <c r="B38" t="s">
-        <v>446</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>469</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>470</v>
-      </c>
-      <c r="E38" t="s">
-        <v>471</v>
       </c>
       <c r="F38" t="s">
         <v>53</v>
@@ -5717,16 +5708,16 @@
         <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J38" t="s">
+        <v>471</v>
+      </c>
+      <c r="K38" t="s">
         <v>472</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>473</v>
-      </c>
-      <c r="L38" t="s">
-        <v>474</v>
       </c>
       <c r="M38" t="s">
         <v>259</v>
@@ -5744,7 +5735,7 @@
         <v>33</v>
       </c>
       <c r="R38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S38" t="s">
         <v>33</v>
@@ -5753,40 +5744,40 @@
         <v>33</v>
       </c>
       <c r="U38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V38" t="s">
         <v>45</v>
       </c>
       <c r="W38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="X38" t="s">
         <v>46</v>
       </c>
       <c r="Y38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Z38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>476</v>
+      </c>
+      <c r="B39" t="s">
         <v>477</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>478</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>479</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>480</v>
       </c>
-      <c r="E39" t="s">
-        <v>481</v>
-      </c>
       <c r="F39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G39" t="s">
         <v>70</v>
@@ -5795,19 +5786,19 @@
         <v>71</v>
       </c>
       <c r="I39" t="s">
+        <v>481</v>
+      </c>
+      <c r="J39" t="s">
         <v>482</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>483</v>
       </c>
-      <c r="K39" t="s">
-        <v>484</v>
-      </c>
       <c r="L39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N39" t="s">
         <v>89</v>
@@ -5819,52 +5810,52 @@
         <v>77</v>
       </c>
       <c r="Q39" t="s">
+        <v>484</v>
+      </c>
+      <c r="R39" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" t="s">
         <v>485</v>
       </c>
-      <c r="R39" t="s">
-        <v>33</v>
-      </c>
-      <c r="S39" t="s">
-        <v>33</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
+        <v>388</v>
+      </c>
+      <c r="V39" t="s">
         <v>486</v>
-      </c>
-      <c r="U39" t="s">
-        <v>389</v>
-      </c>
-      <c r="V39" t="s">
-        <v>487</v>
       </c>
       <c r="W39" t="s">
         <v>205</v>
       </c>
       <c r="X39" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y39" t="s">
         <v>488</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>489</v>
       </c>
       <c r="Z39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>489</v>
+      </c>
+      <c r="B40" t="s">
+        <v>477</v>
+      </c>
+      <c r="C40" t="s">
         <v>490</v>
       </c>
-      <c r="B40" t="s">
-        <v>478</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>491</v>
-      </c>
-      <c r="D40" t="s">
-        <v>492</v>
       </c>
       <c r="E40" t="s">
         <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -5873,16 +5864,16 @@
         <v>71</v>
       </c>
       <c r="I40" t="s">
+        <v>493</v>
+      </c>
+      <c r="J40" t="s">
         <v>494</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>495</v>
       </c>
-      <c r="K40" t="s">
-        <v>496</v>
-      </c>
       <c r="L40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M40" t="s">
         <v>59</v>
@@ -5909,7 +5900,7 @@
         <v>33</v>
       </c>
       <c r="U40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V40" t="s">
         <v>62</v>
@@ -5921,28 +5912,28 @@
         <v>46</v>
       </c>
       <c r="Y40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>497</v>
+      </c>
+      <c r="B41" t="s">
+        <v>477</v>
+      </c>
+      <c r="C41" t="s">
         <v>498</v>
       </c>
-      <c r="B41" t="s">
-        <v>478</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>499</v>
-      </c>
-      <c r="D41" t="s">
-        <v>500</v>
       </c>
       <c r="E41" t="s">
         <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G41" t="s">
         <v>32</v>
@@ -5954,13 +5945,13 @@
         <v>84</v>
       </c>
       <c r="J41" t="s">
+        <v>501</v>
+      </c>
+      <c r="K41" t="s">
         <v>502</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>503</v>
-      </c>
-      <c r="L41" t="s">
-        <v>504</v>
       </c>
       <c r="M41" t="s">
         <v>177</v>
@@ -5975,13 +5966,13 @@
         <v>60</v>
       </c>
       <c r="Q41" t="s">
+        <v>504</v>
+      </c>
+      <c r="R41" t="s">
+        <v>33</v>
+      </c>
+      <c r="S41" t="s">
         <v>505</v>
-      </c>
-      <c r="R41" t="s">
-        <v>33</v>
-      </c>
-      <c r="S41" t="s">
-        <v>506</v>
       </c>
       <c r="T41" t="s">
         <v>33</v>
@@ -5999,30 +5990,30 @@
         <v>46</v>
       </c>
       <c r="Y41" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z41" t="s">
         <v>507</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>508</v>
+      </c>
+      <c r="B42" t="s">
         <v>509</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>510</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>511</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>512</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>513</v>
-      </c>
-      <c r="F42" t="s">
-        <v>514</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
@@ -6034,19 +6025,19 @@
         <v>281</v>
       </c>
       <c r="J42" t="s">
+        <v>514</v>
+      </c>
+      <c r="K42" t="s">
         <v>515</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>516</v>
-      </c>
-      <c r="L42" t="s">
-        <v>517</v>
       </c>
       <c r="M42" t="s">
         <v>259</v>
       </c>
       <c r="N42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O42" t="s">
         <v>40</v>
@@ -6067,60 +6058,60 @@
         <v>33</v>
       </c>
       <c r="U42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V42" t="s">
         <v>92</v>
       </c>
       <c r="W42" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="X42" t="s">
         <v>46</v>
       </c>
       <c r="Y42" t="s">
+        <v>517</v>
+      </c>
+      <c r="Z42" t="s">
         <v>518</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>519</v>
+      </c>
+      <c r="B43" t="s">
+        <v>509</v>
+      </c>
+      <c r="C43" t="s">
         <v>520</v>
       </c>
-      <c r="B43" t="s">
-        <v>510</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>521</v>
-      </c>
-      <c r="D43" t="s">
-        <v>522</v>
       </c>
       <c r="E43" t="s">
         <v>52</v>
       </c>
       <c r="F43" t="s">
+        <v>522</v>
+      </c>
+      <c r="G43" t="s">
         <v>523</v>
-      </c>
-      <c r="G43" t="s">
-        <v>524</v>
       </c>
       <c r="H43" t="s">
         <v>163</v>
       </c>
       <c r="I43" t="s">
+        <v>524</v>
+      </c>
+      <c r="J43" t="s">
         <v>525</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>526</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>527</v>
-      </c>
-      <c r="L43" t="s">
-        <v>528</v>
       </c>
       <c r="M43" t="s">
         <v>38</v>
@@ -6135,19 +6126,19 @@
         <v>60</v>
       </c>
       <c r="Q43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R43" t="s">
         <v>33</v>
       </c>
       <c r="S43" t="s">
+        <v>528</v>
+      </c>
+      <c r="T43" t="s">
+        <v>33</v>
+      </c>
+      <c r="U43" t="s">
         <v>529</v>
-      </c>
-      <c r="T43" t="s">
-        <v>33</v>
-      </c>
-      <c r="U43" t="s">
-        <v>530</v>
       </c>
       <c r="V43" t="s">
         <v>45</v>
@@ -6159,24 +6150,24 @@
         <v>46</v>
       </c>
       <c r="Y43" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z43" t="s">
         <v>531</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>532</v>
+      </c>
+      <c r="B44" t="s">
+        <v>509</v>
+      </c>
+      <c r="C44" t="s">
         <v>533</v>
       </c>
-      <c r="B44" t="s">
-        <v>510</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>534</v>
-      </c>
-      <c r="D44" t="s">
-        <v>535</v>
       </c>
       <c r="E44" t="s">
         <v>52</v>
@@ -6191,16 +6182,16 @@
         <v>33</v>
       </c>
       <c r="I44" t="s">
+        <v>535</v>
+      </c>
+      <c r="J44" t="s">
         <v>536</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" t="s">
         <v>537</v>
-      </c>
-      <c r="K44" t="s">
-        <v>33</v>
-      </c>
-      <c r="L44" t="s">
-        <v>538</v>
       </c>
       <c r="M44" t="s">
         <v>259</v>
@@ -6227,7 +6218,7 @@
         <v>33</v>
       </c>
       <c r="U44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V44" t="s">
         <v>33</v>
@@ -6239,24 +6230,24 @@
         <v>46</v>
       </c>
       <c r="Y44" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z44" t="s">
         <v>539</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>540</v>
+      </c>
+      <c r="B45" t="s">
+        <v>509</v>
+      </c>
+      <c r="C45" t="s">
         <v>541</v>
       </c>
-      <c r="B45" t="s">
-        <v>510</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>542</v>
-      </c>
-      <c r="D45" t="s">
-        <v>543</v>
       </c>
       <c r="E45" t="s">
         <v>52</v>
@@ -6271,16 +6262,16 @@
         <v>33</v>
       </c>
       <c r="I45" t="s">
+        <v>543</v>
+      </c>
+      <c r="J45" t="s">
         <v>544</v>
       </c>
-      <c r="J45" t="s">
-        <v>545</v>
-      </c>
       <c r="K45" t="s">
         <v>33</v>
       </c>
       <c r="L45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M45" t="s">
         <v>59</v>
@@ -6289,7 +6280,7 @@
         <v>145</v>
       </c>
       <c r="O45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P45" t="s">
         <v>77</v>
@@ -6307,7 +6298,7 @@
         <v>33</v>
       </c>
       <c r="U45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V45" t="s">
         <v>92</v>
@@ -6319,27 +6310,27 @@
         <v>46</v>
       </c>
       <c r="Y45" t="s">
+        <v>546</v>
+      </c>
+      <c r="Z45" t="s">
         <v>547</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>548</v>
+      </c>
+      <c r="B46" t="s">
         <v>549</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>550</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>404</v>
+      </c>
+      <c r="E46" t="s">
         <v>551</v>
-      </c>
-      <c r="D46" t="s">
-        <v>405</v>
-      </c>
-      <c r="E46" t="s">
-        <v>552</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
@@ -6351,16 +6342,16 @@
         <v>33</v>
       </c>
       <c r="I46" t="s">
+        <v>552</v>
+      </c>
+      <c r="J46" t="s">
         <v>553</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>554</v>
       </c>
-      <c r="K46" t="s">
-        <v>555</v>
-      </c>
       <c r="L46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M46" t="s">
         <v>59</v>
@@ -6375,7 +6366,7 @@
         <v>41</v>
       </c>
       <c r="Q46" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="R46" t="s">
         <v>33</v>
@@ -6393,36 +6384,36 @@
         <v>274</v>
       </c>
       <c r="W46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="X46" t="s">
         <v>46</v>
       </c>
       <c r="Y46" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Z46" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>557</v>
+      </c>
+      <c r="B47" t="s">
         <v>558</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>559</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>560</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>480</v>
+      </c>
+      <c r="F47" t="s">
         <v>561</v>
-      </c>
-      <c r="E47" t="s">
-        <v>481</v>
-      </c>
-      <c r="F47" t="s">
-        <v>562</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -6431,16 +6422,16 @@
         <v>33</v>
       </c>
       <c r="I47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J47" t="s">
+        <v>562</v>
+      </c>
+      <c r="K47" t="s">
         <v>563</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>564</v>
-      </c>
-      <c r="L47" t="s">
-        <v>565</v>
       </c>
       <c r="M47" t="s">
         <v>259</v>
@@ -6455,7 +6446,7 @@
         <v>77</v>
       </c>
       <c r="Q47" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R47" t="s">
         <v>43</v>
@@ -6467,7 +6458,7 @@
         <v>33</v>
       </c>
       <c r="U47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V47" t="s">
         <v>274</v>
@@ -6476,33 +6467,33 @@
         <v>205</v>
       </c>
       <c r="X47" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Y47" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z47" t="s">
         <v>566</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B48" t="s">
+        <v>558</v>
+      </c>
+      <c r="C48" t="s">
         <v>559</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>560</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>480</v>
+      </c>
+      <c r="F48" t="s">
         <v>561</v>
-      </c>
-      <c r="E48" t="s">
-        <v>481</v>
-      </c>
-      <c r="F48" t="s">
-        <v>562</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -6511,16 +6502,16 @@
         <v>33</v>
       </c>
       <c r="I48" t="s">
+        <v>568</v>
+      </c>
+      <c r="J48" t="s">
         <v>569</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>570</v>
       </c>
-      <c r="K48" t="s">
-        <v>571</v>
-      </c>
       <c r="L48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M48" t="s">
         <v>259</v>
@@ -6535,19 +6526,19 @@
         <v>77</v>
       </c>
       <c r="Q48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R48" t="s">
+        <v>571</v>
+      </c>
+      <c r="S48" t="s">
+        <v>33</v>
+      </c>
+      <c r="T48" t="s">
+        <v>33</v>
+      </c>
+      <c r="U48" t="s">
         <v>572</v>
-      </c>
-      <c r="S48" t="s">
-        <v>33</v>
-      </c>
-      <c r="T48" t="s">
-        <v>33</v>
-      </c>
-      <c r="U48" t="s">
-        <v>573</v>
       </c>
       <c r="V48" t="s">
         <v>274</v>
@@ -6556,33 +6547,33 @@
         <v>205</v>
       </c>
       <c r="X48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Y48" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z48" t="s">
         <v>566</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>573</v>
+      </c>
+      <c r="B49" t="s">
+        <v>558</v>
+      </c>
+      <c r="C49" t="s">
         <v>574</v>
       </c>
-      <c r="B49" t="s">
-        <v>559</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>575</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>576</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>577</v>
-      </c>
-      <c r="F49" t="s">
-        <v>578</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -6591,16 +6582,16 @@
         <v>33</v>
       </c>
       <c r="I49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J49" t="s">
+        <v>578</v>
+      </c>
+      <c r="K49" t="s">
         <v>579</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>580</v>
-      </c>
-      <c r="L49" t="s">
-        <v>581</v>
       </c>
       <c r="M49" t="s">
         <v>59</v>
@@ -6618,7 +6609,7 @@
         <v>42</v>
       </c>
       <c r="R49" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="S49" t="s">
         <v>33</v>
@@ -6627,7 +6618,7 @@
         <v>33</v>
       </c>
       <c r="U49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V49" t="s">
         <v>92</v>
@@ -6636,27 +6627,27 @@
         <v>205</v>
       </c>
       <c r="X49" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y49" t="s">
         <v>583</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>584</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>585</v>
+      </c>
+      <c r="B50" t="s">
         <v>586</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>587</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>588</v>
-      </c>
-      <c r="D50" t="s">
-        <v>589</v>
       </c>
       <c r="E50" t="s">
         <v>52</v>
@@ -6674,13 +6665,13 @@
         <v>55</v>
       </c>
       <c r="J50" t="s">
+        <v>589</v>
+      </c>
+      <c r="K50" t="s">
         <v>590</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>591</v>
-      </c>
-      <c r="L50" t="s">
-        <v>592</v>
       </c>
       <c r="M50" t="s">
         <v>59</v>
@@ -6695,7 +6686,7 @@
         <v>77</v>
       </c>
       <c r="Q50" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R50" t="s">
         <v>33</v>
@@ -6719,7 +6710,7 @@
         <v>46</v>
       </c>
       <c r="Y50" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Z50" t="s">
         <v>228</v>
@@ -6727,46 +6718,46 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>594</v>
+      </c>
+      <c r="B51" t="s">
+        <v>586</v>
+      </c>
+      <c r="C51" t="s">
         <v>595</v>
       </c>
-      <c r="B51" t="s">
-        <v>587</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>596</v>
-      </c>
-      <c r="D51" t="s">
-        <v>597</v>
       </c>
       <c r="E51" t="s">
         <v>52</v>
       </c>
       <c r="F51" t="s">
+        <v>597</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" t="s">
+        <v>359</v>
+      </c>
+      <c r="J51" t="s">
         <v>598</v>
       </c>
-      <c r="G51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H51" t="s">
-        <v>33</v>
-      </c>
-      <c r="I51" t="s">
-        <v>360</v>
-      </c>
-      <c r="J51" t="s">
-        <v>599</v>
-      </c>
       <c r="K51" t="s">
         <v>33</v>
       </c>
       <c r="L51" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M51" t="s">
         <v>59</v>
       </c>
       <c r="N51" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O51" t="s">
         <v>40</v>
@@ -6787,7 +6778,7 @@
         <v>33</v>
       </c>
       <c r="U51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V51" t="s">
         <v>45</v>
@@ -6799,24 +6790,24 @@
         <v>46</v>
       </c>
       <c r="Y51" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Z51" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>601</v>
+      </c>
+      <c r="B52" t="s">
+        <v>586</v>
+      </c>
+      <c r="C52" t="s">
         <v>602</v>
       </c>
-      <c r="B52" t="s">
-        <v>587</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>603</v>
-      </c>
-      <c r="D52" t="s">
-        <v>604</v>
       </c>
       <c r="E52" t="s">
         <v>52</v>
@@ -6825,22 +6816,22 @@
         <v>53</v>
       </c>
       <c r="G52" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H52" t="s">
+        <v>604</v>
+      </c>
+      <c r="I52" t="s">
         <v>605</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>606</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>607</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>608</v>
-      </c>
-      <c r="L52" t="s">
-        <v>609</v>
       </c>
       <c r="M52" t="s">
         <v>259</v>
@@ -6867,7 +6858,7 @@
         <v>33</v>
       </c>
       <c r="U52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V52" t="s">
         <v>33</v>
@@ -6879,24 +6870,24 @@
         <v>46</v>
       </c>
       <c r="Y52" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z52" t="s">
         <v>610</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>611</v>
+      </c>
+      <c r="B53" t="s">
         <v>612</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>613</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>614</v>
-      </c>
-      <c r="D53" t="s">
-        <v>615</v>
       </c>
       <c r="E53" t="s">
         <v>267</v>
@@ -6908,19 +6899,19 @@
         <v>33</v>
       </c>
       <c r="H53" t="s">
+        <v>615</v>
+      </c>
+      <c r="I53" t="s">
         <v>616</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>617</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>618</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>619</v>
-      </c>
-      <c r="L53" t="s">
-        <v>620</v>
       </c>
       <c r="M53" t="s">
         <v>259</v>
@@ -6938,16 +6929,16 @@
         <v>237</v>
       </c>
       <c r="R53" t="s">
+        <v>620</v>
+      </c>
+      <c r="S53" t="s">
+        <v>33</v>
+      </c>
+      <c r="T53" t="s">
+        <v>33</v>
+      </c>
+      <c r="U53" t="s">
         <v>621</v>
-      </c>
-      <c r="S53" t="s">
-        <v>33</v>
-      </c>
-      <c r="T53" t="s">
-        <v>33</v>
-      </c>
-      <c r="U53" t="s">
-        <v>622</v>
       </c>
       <c r="V53" t="s">
         <v>33</v>
@@ -6959,48 +6950,48 @@
         <v>33</v>
       </c>
       <c r="Y53" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z53" t="s">
         <v>623</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>624</v>
+      </c>
+      <c r="B54" t="s">
+        <v>612</v>
+      </c>
+      <c r="C54" t="s">
         <v>625</v>
       </c>
-      <c r="B54" t="s">
-        <v>613</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>626</v>
-      </c>
-      <c r="D54" t="s">
-        <v>627</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G54" t="s">
         <v>33</v>
       </c>
       <c r="H54" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I54" t="s">
         <v>281</v>
       </c>
       <c r="J54" t="s">
+        <v>628</v>
+      </c>
+      <c r="K54" t="s">
         <v>629</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>630</v>
-      </c>
-      <c r="L54" t="s">
-        <v>631</v>
       </c>
       <c r="M54" t="s">
         <v>38</v>
@@ -7015,7 +7006,7 @@
         <v>60</v>
       </c>
       <c r="Q54" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R54" t="s">
         <v>33</v>
@@ -7027,7 +7018,7 @@
         <v>33</v>
       </c>
       <c r="U54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V54" t="s">
         <v>92</v>
@@ -7039,49 +7030,49 @@
         <v>46</v>
       </c>
       <c r="Y54" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Z54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>633</v>
+      </c>
+      <c r="B55" t="s">
         <v>634</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>635</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>636</v>
       </c>
-      <c r="D55" t="s">
-        <v>637</v>
-      </c>
       <c r="E55" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F55" t="s">
         <v>53</v>
       </c>
       <c r="G55" t="s">
+        <v>637</v>
+      </c>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" t="s">
         <v>638</v>
       </c>
-      <c r="H55" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>639</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>640</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>641</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>642</v>
-      </c>
-      <c r="M55" t="s">
-        <v>643</v>
       </c>
       <c r="N55" t="s">
         <v>89</v>
@@ -7096,7 +7087,7 @@
         <v>225</v>
       </c>
       <c r="R55" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="S55" t="s">
         <v>33</v>
@@ -7111,33 +7102,33 @@
         <v>33</v>
       </c>
       <c r="W55" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="X55" t="s">
         <v>46</v>
       </c>
       <c r="Y55" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z55" t="s">
         <v>645</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>646</v>
+      </c>
+      <c r="B56" t="s">
+        <v>634</v>
+      </c>
+      <c r="C56" t="s">
         <v>647</v>
       </c>
-      <c r="B56" t="s">
-        <v>635</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>648</v>
       </c>
-      <c r="D56" t="s">
-        <v>649</v>
-      </c>
       <c r="E56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F56" t="s">
         <v>53</v>
@@ -7149,16 +7140,16 @@
         <v>33</v>
       </c>
       <c r="I56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J56" t="s">
+        <v>649</v>
+      </c>
+      <c r="K56" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" t="s">
         <v>650</v>
-      </c>
-      <c r="K56" t="s">
-        <v>33</v>
-      </c>
-      <c r="L56" t="s">
-        <v>651</v>
       </c>
       <c r="M56" t="s">
         <v>59</v>
@@ -7191,36 +7182,36 @@
         <v>274</v>
       </c>
       <c r="W56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="X56" t="s">
         <v>46</v>
       </c>
       <c r="Y56" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Z56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>652</v>
+      </c>
+      <c r="B57" t="s">
+        <v>634</v>
+      </c>
+      <c r="C57" t="s">
         <v>653</v>
       </c>
-      <c r="B57" t="s">
-        <v>635</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>654</v>
-      </c>
-      <c r="D57" t="s">
-        <v>655</v>
       </c>
       <c r="E57" t="s">
         <v>52</v>
       </c>
       <c r="F57" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -7229,16 +7220,16 @@
         <v>269</v>
       </c>
       <c r="I57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J57" t="s">
+        <v>656</v>
+      </c>
+      <c r="K57" t="s">
         <v>657</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>658</v>
-      </c>
-      <c r="L57" t="s">
-        <v>659</v>
       </c>
       <c r="M57" t="s">
         <v>259</v>
@@ -7247,7 +7238,7 @@
         <v>39</v>
       </c>
       <c r="O57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P57" t="s">
         <v>60</v>
@@ -7265,7 +7256,7 @@
         <v>33</v>
       </c>
       <c r="U57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V57" t="s">
         <v>45</v>
@@ -7277,27 +7268,27 @@
         <v>46</v>
       </c>
       <c r="Y57" t="s">
+        <v>659</v>
+      </c>
+      <c r="Z57" t="s">
         <v>660</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>661</v>
+      </c>
+      <c r="B58" t="s">
         <v>662</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>663</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>664</v>
       </c>
-      <c r="D58" t="s">
-        <v>665</v>
-      </c>
       <c r="E58" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F58" t="s">
         <v>53</v>
@@ -7309,16 +7300,16 @@
         <v>33</v>
       </c>
       <c r="I58" t="s">
+        <v>665</v>
+      </c>
+      <c r="J58" t="s">
         <v>666</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>667</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>668</v>
-      </c>
-      <c r="L58" t="s">
-        <v>669</v>
       </c>
       <c r="M58" t="s">
         <v>59</v>
@@ -7333,10 +7324,10 @@
         <v>77</v>
       </c>
       <c r="Q58" t="s">
+        <v>669</v>
+      </c>
+      <c r="R58" t="s">
         <v>670</v>
-      </c>
-      <c r="R58" t="s">
-        <v>671</v>
       </c>
       <c r="S58" t="s">
         <v>33</v>
@@ -7354,27 +7345,27 @@
         <v>205</v>
       </c>
       <c r="X58" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Y58" t="s">
+        <v>671</v>
+      </c>
+      <c r="Z58" t="s">
         <v>672</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>673</v>
+      </c>
+      <c r="B59" t="s">
+        <v>662</v>
+      </c>
+      <c r="C59" t="s">
         <v>674</v>
       </c>
-      <c r="B59" t="s">
-        <v>663</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>675</v>
-      </c>
-      <c r="D59" t="s">
-        <v>676</v>
       </c>
       <c r="E59" t="s">
         <v>52</v>
@@ -7389,16 +7380,16 @@
         <v>33</v>
       </c>
       <c r="I59" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J59" t="s">
+        <v>676</v>
+      </c>
+      <c r="K59" t="s">
         <v>677</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>678</v>
-      </c>
-      <c r="L59" t="s">
-        <v>679</v>
       </c>
       <c r="M59" t="s">
         <v>59</v>
@@ -7425,7 +7416,7 @@
         <v>33</v>
       </c>
       <c r="U59" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V59" t="s">
         <v>62</v>
@@ -7437,25 +7428,25 @@
         <v>46</v>
       </c>
       <c r="Y59" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>680</v>
+      </c>
+      <c r="B60" t="s">
+        <v>662</v>
+      </c>
+      <c r="C60" t="s">
         <v>681</v>
       </c>
-      <c r="B60" t="s">
-        <v>663</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>682</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>683</v>
-      </c>
-      <c r="E60" t="s">
-        <v>684</v>
       </c>
       <c r="F60" t="s">
         <v>53</v>
@@ -7467,16 +7458,16 @@
         <v>71</v>
       </c>
       <c r="I60" t="s">
+        <v>684</v>
+      </c>
+      <c r="J60" t="s">
         <v>685</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>686</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>687</v>
-      </c>
-      <c r="L60" t="s">
-        <v>688</v>
       </c>
       <c r="M60" t="s">
         <v>259</v>
@@ -7491,19 +7482,19 @@
         <v>77</v>
       </c>
       <c r="Q60" t="s">
+        <v>688</v>
+      </c>
+      <c r="R60" t="s">
         <v>689</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
+        <v>33</v>
+      </c>
+      <c r="T60" t="s">
+        <v>33</v>
+      </c>
+      <c r="U60" t="s">
         <v>690</v>
-      </c>
-      <c r="S60" t="s">
-        <v>33</v>
-      </c>
-      <c r="T60" t="s">
-        <v>33</v>
-      </c>
-      <c r="U60" t="s">
-        <v>691</v>
       </c>
       <c r="V60" t="s">
         <v>122</v>
@@ -7512,23 +7503,23 @@
         <v>205</v>
       </c>
       <c r="X60" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Y60"/>
       <c r="Z60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>692</v>
+      </c>
+      <c r="B61" t="s">
+        <v>662</v>
+      </c>
+      <c r="C61" t="s">
         <v>693</v>
       </c>
-      <c r="B61" t="s">
-        <v>663</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>694</v>
-      </c>
-      <c r="D61" t="s">
-        <v>695</v>
       </c>
       <c r="E61" t="s">
         <v>52</v>
@@ -7543,16 +7534,16 @@
         <v>163</v>
       </c>
       <c r="I61" t="s">
+        <v>695</v>
+      </c>
+      <c r="J61" t="s">
         <v>696</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" t="s">
         <v>697</v>
-      </c>
-      <c r="K61" t="s">
-        <v>33</v>
-      </c>
-      <c r="L61" t="s">
-        <v>698</v>
       </c>
       <c r="M61" t="s">
         <v>259</v>
@@ -7591,24 +7582,24 @@
         <v>46</v>
       </c>
       <c r="Y61" t="s">
+        <v>698</v>
+      </c>
+      <c r="Z61" t="s">
         <v>699</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>700</v>
+      </c>
+      <c r="B62" t="s">
+        <v>662</v>
+      </c>
+      <c r="C62" t="s">
         <v>701</v>
       </c>
-      <c r="B62" t="s">
-        <v>663</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>702</v>
-      </c>
-      <c r="D62" t="s">
-        <v>703</v>
       </c>
       <c r="E62" t="s">
         <v>267</v>
@@ -7623,19 +7614,19 @@
         <v>33</v>
       </c>
       <c r="I62" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J62" t="s">
+        <v>703</v>
+      </c>
+      <c r="K62" t="s">
+        <v>33</v>
+      </c>
+      <c r="L62" t="s">
         <v>704</v>
       </c>
-      <c r="K62" t="s">
-        <v>33</v>
-      </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>705</v>
-      </c>
-      <c r="M62" t="s">
-        <v>706</v>
       </c>
       <c r="N62" t="s">
         <v>89</v>
@@ -7647,11 +7638,11 @@
         <v>41</v>
       </c>
       <c r="Q62" t="s">
+        <v>706</v>
+      </c>
+      <c r="R62" t="s">
         <v>707</v>
       </c>
-      <c r="R62" t="s">
-        <v>708</v>
-      </c>
       <c r="S62" t="s">
         <v>33</v>
       </c>
@@ -7659,7 +7650,7 @@
         <v>33</v>
       </c>
       <c r="U62" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V62" t="s">
         <v>92</v>
@@ -7671,24 +7662,24 @@
         <v>33</v>
       </c>
       <c r="Y62" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z62" t="s">
         <v>709</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>710</v>
+      </c>
+      <c r="B63" t="s">
         <v>711</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>712</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>713</v>
-      </c>
-      <c r="D63" t="s">
-        <v>714</v>
       </c>
       <c r="E63" t="s">
         <v>52</v>
@@ -7703,19 +7694,19 @@
         <v>33</v>
       </c>
       <c r="I63" t="s">
+        <v>714</v>
+      </c>
+      <c r="J63" t="s">
         <v>715</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>716</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>717</v>
       </c>
-      <c r="L63" t="s">
-        <v>718</v>
-      </c>
       <c r="M63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N63" t="s">
         <v>39</v>
@@ -7739,7 +7730,7 @@
         <v>33</v>
       </c>
       <c r="U63" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="V63" t="s">
         <v>33</v>
@@ -7751,22 +7742,22 @@
         <v>46</v>
       </c>
       <c r="Y63" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Z63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>719</v>
+      </c>
+      <c r="B64" t="s">
+        <v>711</v>
+      </c>
+      <c r="C64" t="s">
         <v>720</v>
       </c>
-      <c r="B64" t="s">
-        <v>712</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>721</v>
-      </c>
-      <c r="D64" t="s">
-        <v>722</v>
       </c>
       <c r="E64" t="s">
         <v>52</v>
@@ -7775,22 +7766,22 @@
         <v>53</v>
       </c>
       <c r="G64" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H64" t="s">
         <v>269</v>
       </c>
       <c r="I64" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J64" t="s">
+        <v>723</v>
+      </c>
+      <c r="K64" t="s">
         <v>724</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>725</v>
-      </c>
-      <c r="L64" t="s">
-        <v>726</v>
       </c>
       <c r="M64" t="s">
         <v>59</v>
@@ -7817,7 +7808,7 @@
         <v>33</v>
       </c>
       <c r="U64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V64" t="s">
         <v>62</v>
@@ -7829,28 +7820,28 @@
         <v>46</v>
       </c>
       <c r="Y64" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Z64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>727</v>
+      </c>
+      <c r="B65" t="s">
+        <v>711</v>
+      </c>
+      <c r="C65" t="s">
         <v>728</v>
       </c>
-      <c r="B65" t="s">
-        <v>712</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>729</v>
-      </c>
-      <c r="D65" t="s">
-        <v>730</v>
       </c>
       <c r="E65" t="s">
         <v>52</v>
       </c>
       <c r="F65" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -7859,16 +7850,16 @@
         <v>33</v>
       </c>
       <c r="I65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J65" t="s">
+        <v>731</v>
+      </c>
+      <c r="K65" t="s">
         <v>732</v>
       </c>
-      <c r="K65" t="s">
-        <v>733</v>
-      </c>
       <c r="L65" t="s">
-        <v>734</v>
+        <v>537</v>
       </c>
       <c r="M65" t="s">
         <v>259</v>
@@ -7877,13 +7868,13 @@
         <v>39</v>
       </c>
       <c r="O65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P65" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="Q65" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="R65" t="s">
         <v>33</v>
@@ -7895,7 +7886,7 @@
         <v>33</v>
       </c>
       <c r="U65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V65" t="s">
         <v>45</v>
@@ -7907,27 +7898,27 @@
         <v>46</v>
       </c>
       <c r="Y65" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="Z65" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>736</v>
+      </c>
+      <c r="B66" t="s">
+        <v>737</v>
+      </c>
+      <c r="C66" t="s">
         <v>738</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
         <v>739</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>740</v>
-      </c>
-      <c r="D66" t="s">
-        <v>741</v>
-      </c>
-      <c r="E66" t="s">
-        <v>742</v>
       </c>
       <c r="F66" t="s">
         <v>53</v>
@@ -7939,25 +7930,25 @@
         <v>71</v>
       </c>
       <c r="I66" t="s">
+        <v>741</v>
+      </c>
+      <c r="J66" t="s">
+        <v>742</v>
+      </c>
+      <c r="K66" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" t="s">
         <v>743</v>
       </c>
-      <c r="J66" t="s">
+      <c r="M66" t="s">
         <v>744</v>
-      </c>
-      <c r="K66" t="s">
-        <v>33</v>
-      </c>
-      <c r="L66" t="s">
-        <v>745</v>
-      </c>
-      <c r="M66" t="s">
-        <v>746</v>
       </c>
       <c r="N66" t="s">
         <v>89</v>
       </c>
       <c r="O66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P66" t="s">
         <v>41</v>
@@ -7984,57 +7975,57 @@
         <v>205</v>
       </c>
       <c r="X66" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>746</v>
+      </c>
+      <c r="Z66" t="s">
         <v>747</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>748</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>748</v>
+      </c>
+      <c r="B67" t="s">
+        <v>749</v>
+      </c>
+      <c r="C67" t="s">
         <v>750</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>751</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
+        <v>480</v>
+      </c>
+      <c r="F67" t="s">
         <v>752</v>
       </c>
-      <c r="D67" t="s">
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" t="s">
+        <v>449</v>
+      </c>
+      <c r="J67" t="s">
         <v>753</v>
       </c>
-      <c r="E67" t="s">
-        <v>481</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="K67" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67" t="s">
         <v>754</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
-      </c>
-      <c r="H67" t="s">
-        <v>33</v>
-      </c>
-      <c r="I67" t="s">
-        <v>450</v>
-      </c>
-      <c r="J67" t="s">
-        <v>755</v>
-      </c>
-      <c r="K67" t="s">
-        <v>33</v>
-      </c>
-      <c r="L67" t="s">
-        <v>756</v>
       </c>
       <c r="M67" t="s">
         <v>53</v>
       </c>
       <c r="N67" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="O67" t="s">
         <v>40</v>
@@ -8055,7 +8046,7 @@
         <v>33</v>
       </c>
       <c r="U67" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V67" t="s">
         <v>274</v>
@@ -8064,33 +8055,33 @@
         <v>205</v>
       </c>
       <c r="X67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Y67" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="Z67" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>758</v>
+      </c>
+      <c r="B68" t="s">
+        <v>749</v>
+      </c>
+      <c r="C68" t="s">
+        <v>759</v>
+      </c>
+      <c r="D68" t="s">
         <v>760</v>
       </c>
-      <c r="B68" t="s">
-        <v>751</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>761</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>762</v>
-      </c>
-      <c r="E68" t="s">
-        <v>763</v>
-      </c>
-      <c r="F68" t="s">
-        <v>764</v>
       </c>
       <c r="G68" t="s">
         <v>70</v>
@@ -8099,16 +8090,16 @@
         <v>71</v>
       </c>
       <c r="I68" t="s">
+        <v>763</v>
+      </c>
+      <c r="J68" t="s">
+        <v>764</v>
+      </c>
+      <c r="K68" t="s">
         <v>765</v>
       </c>
-      <c r="J68" t="s">
+      <c r="L68" t="s">
         <v>766</v>
-      </c>
-      <c r="K68" t="s">
-        <v>767</v>
-      </c>
-      <c r="L68" t="s">
-        <v>768</v>
       </c>
       <c r="M68" t="s">
         <v>53</v>
@@ -8144,30 +8135,30 @@
         <v>205</v>
       </c>
       <c r="X68" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>768</v>
+      </c>
+      <c r="Z68" t="s">
         <v>769</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>770</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>770</v>
+      </c>
+      <c r="B69" t="s">
+        <v>771</v>
+      </c>
+      <c r="C69" t="s">
         <v>772</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
         <v>773</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>774</v>
-      </c>
-      <c r="D69" t="s">
-        <v>775</v>
-      </c>
-      <c r="E69" t="s">
-        <v>776</v>
       </c>
       <c r="F69" t="s">
         <v>53</v>
@@ -8182,13 +8173,13 @@
         <v>270</v>
       </c>
       <c r="J69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K69" t="s">
         <v>33</v>
       </c>
       <c r="L69" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="M69" t="s">
         <v>38</v>
@@ -8203,7 +8194,7 @@
         <v>77</v>
       </c>
       <c r="Q69" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="R69" t="s">
         <v>33</v>
@@ -8224,25 +8215,25 @@
         <v>205</v>
       </c>
       <c r="X69" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="Y69" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="Z69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>780</v>
+      </c>
+      <c r="B70" t="s">
+        <v>781</v>
+      </c>
+      <c r="C70" t="s">
         <v>782</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
         <v>783</v>
-      </c>
-      <c r="C70" t="s">
-        <v>784</v>
-      </c>
-      <c r="D70" t="s">
-        <v>785</v>
       </c>
       <c r="E70" t="s">
         <v>267</v>
@@ -8251,22 +8242,22 @@
         <v>53</v>
       </c>
       <c r="G70" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H70" t="s">
         <v>71</v>
       </c>
       <c r="I70" t="s">
+        <v>784</v>
+      </c>
+      <c r="J70" t="s">
+        <v>785</v>
+      </c>
+      <c r="K70" t="s">
         <v>786</v>
       </c>
-      <c r="J70" t="s">
+      <c r="L70" t="s">
         <v>787</v>
-      </c>
-      <c r="K70" t="s">
-        <v>788</v>
-      </c>
-      <c r="L70" t="s">
-        <v>789</v>
       </c>
       <c r="M70" t="s">
         <v>59</v>
@@ -8281,10 +8272,10 @@
         <v>41</v>
       </c>
       <c r="Q70" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="R70" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="S70" t="s">
         <v>33</v>
@@ -8305,24 +8296,24 @@
         <v>33</v>
       </c>
       <c r="Y70" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="Z70" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B71" t="s">
+        <v>781</v>
+      </c>
+      <c r="C71" t="s">
+        <v>782</v>
+      </c>
+      <c r="D71" t="s">
         <v>783</v>
-      </c>
-      <c r="C71" t="s">
-        <v>784</v>
-      </c>
-      <c r="D71" t="s">
-        <v>785</v>
       </c>
       <c r="E71" t="s">
         <v>267</v>
@@ -8331,22 +8322,22 @@
         <v>53</v>
       </c>
       <c r="G71" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H71" t="s">
         <v>71</v>
       </c>
       <c r="I71" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="J71" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="K71" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="L71" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="M71" t="s">
         <v>59</v>
@@ -8361,7 +8352,7 @@
         <v>41</v>
       </c>
       <c r="Q71" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R71" t="s">
         <v>33</v>
@@ -8385,10 +8376,10 @@
         <v>33</v>
       </c>
       <c r="Y71" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="Z71" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>

--- a/data/dpo_app_data.xlsx
+++ b/data/dpo_app_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="838">
   <si>
     <t xml:space="preserve">study_author_year</t>
   </si>
@@ -92,6 +92,12 @@
     <t xml:space="preserve">link_corr_author</t>
   </si>
   <si>
+    <t xml:space="preserve">website_links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clearinghouse_links</t>
+  </si>
+  <si>
     <t xml:space="preserve">García-Escalera 2020</t>
   </si>
   <si>
@@ -161,6 +167,9 @@
     <t xml:space="preserve">https://www.uned.es/universidad/docentes/en/psicologia/rosa-maria-valiente-garcia.html - investigacion</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.amazon.com/Transdiagnostic-Treatment-Emotional-Disorders-Adolescents/dp/0190855533</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johnstone 2020</t>
   </si>
   <si>
@@ -344,6 +353,9 @@
     <t xml:space="preserve">https://www.kcl.ac.uk/people/june-brown</t>
   </si>
   <si>
+    <t xml:space="preserve">https://slam.nhs.uk/discover/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Martinsen 2019</t>
   </si>
   <si>
@@ -389,6 +401,12 @@
     <t xml:space="preserve">https://www.rbup.no/om/ansatte/kristin-martinsen</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.workbookpublishing.com/group-leader-manual-for-emotion-coping-kids-managing-anxiety-and-depression.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cebc4cw.org/program/emotion-coping-kids-managing-anxiety-and-depression/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roberts 2018</t>
   </si>
   <si>
@@ -425,6 +443,12 @@
     <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5863632/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://aussieoptimism.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://positivechoices.org.au/teachers/aussie-optimism-program</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barry 2017</t>
   </si>
   <si>
@@ -464,6 +488,9 @@
     <t xml:space="preserve">http://research.ucc.ie/profiles/A011/mark.barry@ucc.ie</t>
   </si>
   <si>
+    <t xml:space="preserve">https://explore.bps.org.uk/content/bpstcp/5/2/90</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mackay 2017</t>
   </si>
   <si>
@@ -491,6 +518,12 @@
     <t xml:space="preserve">https://link.springer.com/article/10.1007/s10803-017-3263-5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.rap.qut.edu.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cebc4cw.org/program/resourceful-adolescent-program-adolescent-rap-a/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johnson 2017</t>
   </si>
   <si>
@@ -524,6 +557,12 @@
     <t xml:space="preserve">https://www.flinders.edu.au/people/catherine.johnson</t>
   </si>
   <si>
+    <t xml:space="preserve">https://mindfulnessinschools.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pg.casel.org/b/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perry 2017</t>
   </si>
   <si>
@@ -561,6 +600,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.blackdoginstitute.org.au/researcher/helen-christensen/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sparx.org.nz/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.c4tbh.org/program-review/smart-positive-active-realistic-x-factor-thoughts-sparx/</t>
   </si>
   <si>
     <t xml:space="preserve">Van der Gucht 2017</t>
@@ -642,6 +687,12 @@
     <t xml:space="preserve">https://www.research.chop.edu/people/jami-f-young</t>
   </si>
   <si>
+    <t xml:space="preserve">https://academic.oup.com/book/1241/chapter-abstract/140165435?redirectedFrom=fulltext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cebc4cw.org/program/interpersonal-psychotherapy-adolescent-skills-training/detailed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johnson 2016</t>
   </si>
   <si>
@@ -735,6 +786,12 @@
     <t xml:space="preserve">https://www.rug.nl/staff/m.poppelaars/cv</t>
   </si>
   <si>
+    <t xml:space="preserve">https://ppc.sas.upenn.edu/services/penn-resilience-training |~| https://www.sparx.org.nz/ |~| NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.euda.europa.eu/best-practice/xchange/penn-resiliency-programme-prp-op-volle-kracht-full-power-netherlands-uk-resiliency-programme-uk-school-based-group-intervention-teaching-cognitive-behavioural-and-social-problem-solving-skills_en |~| https://www.c4tbh.org/program-review/smart-positive-active-realistic-x-factor-thoughts-sparx/ |~| NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tak 2016</t>
   </si>
   <si>
@@ -771,6 +828,12 @@
     <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26404640/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://ppc.sas.upenn.edu/services/penn-resilience-training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.euda.europa.eu/best-practice/xchange/penn-resiliency-programme-prp-op-volle-kracht-full-power-netherlands-uk-resiliency-programme-uk-school-based-group-intervention-teaching-cognitive-behavioural-and-social-problem-solving-skills_en</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sinclair 2016</t>
   </si>
   <si>
@@ -844,6 +907,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.rachelhodas.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1002/9781118269848.ch4</t>
   </si>
   <si>
     <t xml:space="preserve">Miu 2015</t>
@@ -1042,6 +1108,9 @@
     <t xml:space="preserve">https://www.unsw.edu.au/staff/gavin-andrews</t>
   </si>
   <si>
+    <t xml:space="preserve">https://thiswayup.org.au/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Challen 2014</t>
   </si>
   <si>
@@ -1081,6 +1150,9 @@
     <t xml:space="preserve">https://www.swarthmore.edu/profile/jane-gillham</t>
   </si>
   <si>
+    <t xml:space="preserve">https://guidebook.eif.org.uk/programme/penn-resilience-programme-uk-implementation-in-primary-school</t>
+  </si>
+  <si>
     <t xml:space="preserve">Singhal 2014</t>
   </si>
   <si>
@@ -1192,6 +1264,12 @@
     <t xml:space="preserve">https://www.centracare.com/doctors/lori-b-listug-lunde-phd/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.saavsus.com/adolescent-coping-with-depression-course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cebc4cw.org/program/adolescent-coping-with-depression-course-cwd-a/detailed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Araya 2013</t>
   </si>
   <si>
@@ -1255,6 +1333,9 @@
     <t xml:space="preserve">https://louisville.edu/education/faculty/possel</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.amazon.de/Trainingsprogramm-Pr%C3%A4vention-Depressionen-Jugendlichen-Therapeutische/dp/380171800X</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stallard 2013a</t>
   </si>
   <si>
@@ -1348,6 +1429,9 @@
     <t xml:space="preserve">https://www.socialwork.hku.hk/paulwong/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://depression.hku.hk/en/the-storm/</t>
+  </si>
+  <si>
     <t xml:space="preserve">McCarty 2011</t>
   </si>
   <si>
@@ -1444,6 +1528,9 @@
     <t xml:space="preserve">https://journals.sagepub.com/doi/10.1375/prp.5.1.40</t>
   </si>
   <si>
+    <t xml:space="preserve">https://trove.nla.gov.au/work/26289193</t>
+  </si>
+  <si>
     <t xml:space="preserve">McLaughlin 2010</t>
   </si>
   <si>
@@ -1540,6 +1627,9 @@
     <t xml:space="preserve">https://www.adelaide.edu.au/directory/michael.sawyer</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.beyondblue.org.au/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arnarson 2009</t>
   </si>
   <si>
@@ -1612,6 +1702,12 @@
     <t xml:space="preserve">https://researchers.anu.edu.au/researchers/calear-al</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.moodgym.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdc.thehcn.net/promisepractice/index/view?pid=3835</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shochet 2009</t>
   </si>
   <si>
@@ -1636,6 +1732,9 @@
     <t xml:space="preserve">https://research.qut.edu.au/c4ie/people/ian-shochet/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.rap.qut.edu.au/ |~| https://www.rap.qut.edu.au/programs/rap-p-for-parents</t>
+  </si>
+  <si>
     <t xml:space="preserve">O'Kearney 2009</t>
   </si>
   <si>
@@ -1756,7 +1855,7 @@
     <t xml:space="preserve">14.43 (0.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cognitive-behavior program (CB); interpersonal psychotherapy–adolescent skills training (IPT-AST)</t>
+    <t xml:space="preserve">Cognitive-behavior program (CB; adapted); interpersonal psychotherapy–adolescent skills training (IPT-AST)</t>
   </si>
   <si>
     <t xml:space="preserve">1% AIAN, 1% Asian, 13% Black, 2% Latinx, 79% White</t>
@@ -1771,6 +1870,12 @@
     <t xml:space="preserve">https://www.psychiatry.wisc.edu/staff/horowitz-phd-jason/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://research.kpchr.org/Research/Research-Areas/Mental-Health/Youth-Depression-Programs#Downloads |~| https://academic.oup.com/book/1241/chapter-abstract/140165435?redirectedFrom=fulltext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.mentalhealthpromotion.net/?i=promenpol.en.toolkit.343 |~| https://www.cebc4cw.org/program/interpersonal-psychotherapy-adolescent-skills-training/detailed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rooney 2006</t>
   </si>
   <si>
@@ -1796,6 +1901,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.cambridge.org/core/journals/journal-of-psychologists-and-counsellors-in-schools/article/abs/prevention-of-depression-in-8-to-9yearold-children-a-pilot-study/6608AAC77F215E66E86FBD43B6D2A15C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://aussieoptimism.com.au/programs/positive-thinking/</t>
   </si>
   <si>
     <t xml:space="preserve">O'Kearney 2006</t>
@@ -1916,6 +2024,9 @@
     <t xml:space="preserve">https://journals.sagepub.com/doi/10.1177/1359104505056311</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.themhs.org/resource/adolescents-coping-with-emotions-ace-program/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Merry 2004</t>
   </si>
   <si>
@@ -2034,6 +2145,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.nursing.pitt.edu/person/kathryn-r-puskar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sites.pitt.edu/~krp12/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cebc4cw.org/program/teaching-kids-to-cope-tkc/#:~:text=Teaching%20Kids%20to%20Cope%20%28TKC%29%201%20About%20This,Training%20...%205%20Relevant%20Published%2C%20Peer-Reviewed%20Research%20</t>
   </si>
   <si>
     <t xml:space="preserve">Roberts 2003</t>
@@ -2149,6 +2266,9 @@
     <t xml:space="preserve">https://www.uab.edu/cas/psychology/people/adjuncts-instructors/laura-stoppelbein</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.blueprintsprograms.org/programs/596999999/adolescent-coping-with-depression/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pattison 2001</t>
   </si>
   <si>
@@ -2176,6 +2296,12 @@
     <t xml:space="preserve">https://psycnet.apa.org/record/2002-10530-003</t>
   </si>
   <si>
+    <t xml:space="preserve">https://ppc.sas.upenn.edu/services/penn-resilience-training |~| NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.euda.europa.eu/best-practice/xchange/penn-resiliency-programme-prp-op-volle-kracht-full-power-netherlands-uk-resiliency-programme-uk-school-based-group-intervention-teaching-cognitive-behavioural-and-social-problem-solving-skills_en |~| NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quayle 2001</t>
   </si>
   <si>
@@ -2194,8 +2320,7 @@
     <t xml:space="preserve">NA (11.12)</t>
   </si>
   <si>
-    <t xml:space="preserve">The Optimism and
-Lifeskills Program</t>
+    <t xml:space="preserve">The Optimism and Life Skills Program (adapted from Penn Depression Prevention Program)</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.cambridge.org/core/journals/behaviour-change/article/abs/effect-of-an-optimism-and-lifeskills-program-on-depressive-symptoms-in-preadolescence/ECF328C2C7D71098103A90B9C9891330</t>
@@ -2262,6 +2387,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://mentaltherapy.io/psychologist/ms-lois-ilene-bursuk-phd-tucson/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Learned-Optimism-Change-Your-Mind/dp/1400078393</t>
   </si>
   <si>
     <t xml:space="preserve">Petersen 1997</t>
@@ -2813,5574 +2941,5894 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s">
-        <v>30</v>
-      </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>48</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
         <v>71</v>
       </c>
-      <c r="I4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W4" t="s">
-        <v>68</v>
-      </c>
       <c r="X4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s">
-        <v>80</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AA4"/>
+      <c r="AB4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="V5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Z5" t="s">
-        <v>94</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AA5"/>
+      <c r="AB5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" t="s">
+        <v>109</v>
+      </c>
+      <c r="T6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" t="s">
         <v>101</v>
       </c>
-      <c r="L6" t="s">
-        <v>102</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s">
-        <v>103</v>
-      </c>
-      <c r="O6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>104</v>
-      </c>
-      <c r="R6" t="s">
-        <v>105</v>
-      </c>
-      <c r="S6" t="s">
-        <v>106</v>
-      </c>
-      <c r="T6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" t="s">
-        <v>107</v>
-      </c>
-      <c r="V6" t="s">
-        <v>45</v>
-      </c>
-      <c r="W6" t="s">
-        <v>98</v>
-      </c>
       <c r="X6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s">
-        <v>109</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" t="s">
+        <v>124</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" t="s">
+        <v>125</v>
+      </c>
+      <c r="V7" t="s">
+        <v>126</v>
+      </c>
+      <c r="W7" t="s">
         <v>117</v>
       </c>
-      <c r="L7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>119</v>
-      </c>
-      <c r="R7" t="s">
-        <v>120</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V7" t="s">
-        <v>122</v>
-      </c>
-      <c r="W7" t="s">
-        <v>113</v>
-      </c>
       <c r="X7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Z7" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="V8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Z8"/>
+      <c r="AA8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K9" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="L9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="R9" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="S9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="X9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y9" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="Z9" t="s">
-        <v>149</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L10" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="V10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Z10"/>
+      <c r="AA10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="K11" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="L11" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y11" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Z11" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="K12" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="L12" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M12" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="N12" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q12" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="R12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S12" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="T12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="V12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y12" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Z12" t="s">
-        <v>182</v>
+        <v>195</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W13" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="X13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y13" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="Z13" t="s">
-        <v>191</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="AA13"/>
+      <c r="AB13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="J14" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="K14" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="L14" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q14" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="R14" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="S14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U14" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="V14" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="W14" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X14" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Y14" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="Z14" t="s">
-        <v>208</v>
+        <v>223</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I15" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="J15" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K15" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L15" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U15" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="V15" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="W15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y15" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Z15" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="J16" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K16" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L16" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q16" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="R16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="V16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y16" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="Z16" t="s">
-        <v>228</v>
+        <v>245</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="K17" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L17" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="M17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q17" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="R17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W17" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="X17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y17" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="Z17" t="s">
-        <v>239</v>
+        <v>256</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F18" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="J18" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="K18" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L18" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N18" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q18" t="s">
+        <v>268</v>
+      </c>
+      <c r="R18" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" t="s">
+        <v>269</v>
+      </c>
+      <c r="V18" t="s">
+        <v>47</v>
+      </c>
+      <c r="W18" t="s">
         <v>249</v>
       </c>
-      <c r="R18" t="s">
-        <v>33</v>
-      </c>
-      <c r="S18" t="s">
-        <v>33</v>
-      </c>
-      <c r="T18" t="s">
-        <v>33</v>
-      </c>
-      <c r="U18" t="s">
-        <v>250</v>
-      </c>
-      <c r="V18" t="s">
-        <v>45</v>
-      </c>
-      <c r="W18" t="s">
-        <v>232</v>
-      </c>
       <c r="X18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y18" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="Z18"/>
+      <c r="AA18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="J19" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="M19" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W19" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X19" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="Y19" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="Z19" t="s">
-        <v>262</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="AA19"/>
+      <c r="AB19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C20" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="D20" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="E20" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F20" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="I20" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="J20" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L20" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="M20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N20" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U20" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="V20" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y20" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="Z20" t="s">
-        <v>276</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="J21" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="N21" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U21" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="V21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X21" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="Y21" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="Z21" t="s">
-        <v>287</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="AA21"/>
+      <c r="AB21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="C22" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D22" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="J22" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="K22" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="L22" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="M22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q22" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="R22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U22" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="V22" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="W22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y22" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="Z22" t="s">
-        <v>228</v>
+        <v>245</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="D23" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="E23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" t="s">
+        <v>324</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>325</v>
+      </c>
+      <c r="J23" t="s">
+        <v>326</v>
+      </c>
+      <c r="K23" t="s">
+        <v>327</v>
+      </c>
+      <c r="L23" t="s">
+        <v>328</v>
+      </c>
+      <c r="M23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" t="s">
+        <v>153</v>
+      </c>
+      <c r="O23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>242</v>
+      </c>
+      <c r="R23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" t="s">
+        <v>35</v>
+      </c>
+      <c r="U23" t="s">
         <v>232</v>
       </c>
-      <c r="F23" t="s">
-        <v>302</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" t="s">
-        <v>303</v>
-      </c>
-      <c r="J23" t="s">
-        <v>304</v>
-      </c>
-      <c r="K23" t="s">
-        <v>305</v>
-      </c>
-      <c r="L23" t="s">
-        <v>306</v>
-      </c>
-      <c r="M23" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" t="s">
-        <v>145</v>
-      </c>
-      <c r="O23" t="s">
-        <v>40</v>
-      </c>
-      <c r="P23" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>225</v>
-      </c>
-      <c r="R23" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" t="s">
-        <v>33</v>
-      </c>
-      <c r="U23" t="s">
-        <v>215</v>
-      </c>
       <c r="V23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W23" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="X23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y23" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="Z23"/>
+      <c r="AA23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="C24" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="J24" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="K24" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="L24" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="M24" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N24" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U24" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="V24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W24" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="X24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y24" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="Z24" t="s">
-        <v>317</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="AA24"/>
+      <c r="AB24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="B25" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="C25" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="I25" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="J25" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="K25" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="L25" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="M25" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="N25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q25" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="R25" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="S25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U25" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="V25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y25" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="Z25" t="s">
-        <v>330</v>
+        <v>352</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="B26" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="C26" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="D26" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="I26" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="J26" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L26" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="M26" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N26" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q26" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="R26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V26" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y26" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="Z26" t="s">
-        <v>341</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="C27" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="D27" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="G27" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="K27" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="L27" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O27" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="P27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R27" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="S27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T27" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="U27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="X27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y27" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="Z27" t="s">
-        <v>354</v>
+        <v>377</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="B28" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="C28" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="D28" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="E28" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I28" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="J28" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="K28" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="L28" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="M28" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="N28" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="O28" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="P28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q28" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="R28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U28" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="V28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W28" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="X28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y28" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="B29" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C29" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="D29" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="E29" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="F29" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="K29" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="L29" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="M29" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="N29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q29" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="R29" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="S29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U29" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="V29" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="W29" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X29" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="Y29" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="Z29" t="s">
-        <v>380</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="AA29"/>
+      <c r="AB29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B30" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C30" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="D30" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="E30" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="I30" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="J30" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L30" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="M30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U30" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="V30" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="W30" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X30" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="Y30" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="Z30" t="s">
-        <v>391</v>
+        <v>415</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="B31" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C31" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="D31" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="E31" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="F31" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="J31" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="K31" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="L31" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="M31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q31" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="R31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U31" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="V31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W31" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="X31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y31" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="Z31" t="s">
-        <v>401</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="AA31"/>
+      <c r="AB31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="B32" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="D32" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="E32" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="J32" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="K32" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="L32" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="M32" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="N32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q32" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="R32" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="S32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T32" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="U32" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="V32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W32" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y32" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="Z32" t="s">
-        <v>412</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="B33" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C33" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="D33" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="J33" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L33" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="M33" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="N33" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U33" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="V33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="X33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y33" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="Z33" t="s">
-        <v>424</v>
+        <v>451</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="B34" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C34" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="D34" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="J34" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="K34" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="L34" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="M34" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="N34" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="O34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R34" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="S34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T34" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="U34" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="V34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="X34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y34" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="Z34" t="s">
-        <v>424</v>
+        <v>451</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="B35" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="C35" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="D35" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="E35" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="F35" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J35" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L35" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="M35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N35" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="O35" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="P35" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W35" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="X35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y35" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="Z35" t="s">
-        <v>443</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="B36" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="D36" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="E36" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="F36" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="J36" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="K36" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="L36" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="M36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N36" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q36" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="R36" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="S36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U36" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="V36" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="W36" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X36" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="Y36" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="Z36" t="s">
-        <v>457</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="AA36"/>
+      <c r="AB36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="B37" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="C37" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="D37" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="E37" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="J37" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L37" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="M37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N37" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U37" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="V37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W37" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="X37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y37" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="Z37" t="s">
-        <v>330</v>
+        <v>352</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="B38" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="C38" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="D38" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="E38" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I38" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="J38" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="K38" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="L38" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="M38" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N38" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R38" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="S38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U38" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="V38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W38" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="X38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y38" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="Z38"/>
+      <c r="AA38" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="B39" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="C39" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="D39" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="E39" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="F39" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="J39" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="K39" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="L39" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="M39" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="N39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q39" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="R39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T39" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="U39" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="V39" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="W39" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X39" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="Y39" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="Z39"/>
+      <c r="AA39" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="B40" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="C40" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="D40" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="J40" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="K40" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="L40" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U40" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="V40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y40" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="Z40"/>
+      <c r="AA40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="B41" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="C41" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="D41" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="K41" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="L41" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="M41" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="N41" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q41" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="R41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S41" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="T41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U41" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="V41" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y41" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="Z41" t="s">
-        <v>507</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="B42" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="C42" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="D42" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="E42" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="F42" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I42" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="J42" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="K42" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="L42" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="M42" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N42" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="O42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q42" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="R42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U42" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="V42" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W42" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="X42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y42" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="Z42" t="s">
-        <v>518</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="AA42"/>
+      <c r="AB42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="B43" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="C43" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="D43" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="G43" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="H43" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I43" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="J43" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="K43" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="L43" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="M43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q43" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="R43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S43" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="T43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U43" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="V43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y43" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="Z43" t="s">
-        <v>531</v>
+        <v>561</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="B44" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="C44" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="D44" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I44" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="J44" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="K44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L44" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="M44" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N44" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U44" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="V44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y44" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="Z44" t="s">
-        <v>539</v>
+        <v>571</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="B45" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="C45" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="D45" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I45" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="J45" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="K45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="M45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N45" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O45" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="P45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q45" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="R45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U45" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="V45" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y45" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="Z45" t="s">
-        <v>547</v>
+        <v>580</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="B46" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="C46" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="D46" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="E46" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I46" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="J46" t="s">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="K46" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="L46" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="M46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N46" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q46" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
       <c r="R46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U46" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="V46" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="W46" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="X46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y46" t="s">
-        <v>556</v>
+        <v>589</v>
       </c>
       <c r="Z46" t="s">
-        <v>412</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="B47" t="s">
-        <v>558</v>
+        <v>591</v>
       </c>
       <c r="C47" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="D47" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="E47" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="F47" t="s">
-        <v>561</v>
+        <v>594</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I47" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="J47" t="s">
-        <v>562</v>
+        <v>595</v>
       </c>
       <c r="K47" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
       <c r="L47" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
       <c r="M47" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N47" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q47" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="R47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U47" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="V47" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="W47" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X47" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="Y47" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="Z47" t="s">
-        <v>566</v>
+        <v>599</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="B48" t="s">
-        <v>558</v>
+        <v>591</v>
       </c>
       <c r="C48" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="D48" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="E48" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="F48" t="s">
-        <v>561</v>
+        <v>594</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I48" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="J48" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="K48" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
       <c r="L48" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
       <c r="M48" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q48" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="R48" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="S48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U48" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="V48" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="W48" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X48" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="Y48" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="Z48" t="s">
-        <v>566</v>
+        <v>599</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
       <c r="B49" t="s">
-        <v>558</v>
+        <v>591</v>
       </c>
       <c r="C49" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="D49" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="E49" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="F49" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I49" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="J49" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="K49" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="L49" t="s">
-        <v>580</v>
+        <v>613</v>
       </c>
       <c r="M49" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N49" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R49" t="s">
-        <v>581</v>
+        <v>614</v>
       </c>
       <c r="S49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U49" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="V49" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W49" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X49" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
       <c r="Y49" t="s">
-        <v>583</v>
+        <v>616</v>
       </c>
       <c r="Z49" t="s">
-        <v>584</v>
+        <v>617</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="B50" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="C50" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="D50" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" t="s">
+        <v>624</v>
+      </c>
+      <c r="K50" t="s">
+        <v>625</v>
+      </c>
+      <c r="L50" t="s">
+        <v>626</v>
+      </c>
+      <c r="M50" t="s">
+        <v>62</v>
+      </c>
+      <c r="N50" t="s">
+        <v>41</v>
+      </c>
+      <c r="O50" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>627</v>
+      </c>
+      <c r="R50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S50" t="s">
+        <v>35</v>
+      </c>
+      <c r="T50" t="s">
+        <v>35</v>
+      </c>
+      <c r="U50" t="s">
+        <v>35</v>
+      </c>
+      <c r="V50" t="s">
+        <v>65</v>
+      </c>
+      <c r="W50" t="s">
         <v>55</v>
       </c>
-      <c r="J50" t="s">
-        <v>589</v>
-      </c>
-      <c r="K50" t="s">
-        <v>590</v>
-      </c>
-      <c r="L50" t="s">
-        <v>591</v>
-      </c>
-      <c r="M50" t="s">
-        <v>59</v>
-      </c>
-      <c r="N50" t="s">
-        <v>39</v>
-      </c>
-      <c r="O50" t="s">
-        <v>40</v>
-      </c>
-      <c r="P50" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>592</v>
-      </c>
-      <c r="R50" t="s">
-        <v>33</v>
-      </c>
-      <c r="S50" t="s">
-        <v>33</v>
-      </c>
-      <c r="T50" t="s">
-        <v>33</v>
-      </c>
-      <c r="U50" t="s">
-        <v>33</v>
-      </c>
-      <c r="V50" t="s">
-        <v>62</v>
-      </c>
-      <c r="W50" t="s">
-        <v>52</v>
-      </c>
       <c r="X50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y50" t="s">
-        <v>593</v>
+        <v>628</v>
       </c>
       <c r="Z50" t="s">
-        <v>228</v>
+        <v>245</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="B51" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="C51" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="D51" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I51" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="J51" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="K51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L51" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="M51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N51" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
       <c r="O51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P51" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q51" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="R51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U51" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="V51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y51" t="s">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="Z51" t="s">
-        <v>547</v>
+        <v>580</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="B52" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="C52" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="D52" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="H52" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="I52" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="J52" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="K52" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="L52" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="M52" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U52" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="V52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y52" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="Z52" t="s">
-        <v>610</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="AA52"/>
+      <c r="AB52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>611</v>
+        <v>647</v>
       </c>
       <c r="B53" t="s">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="C53" t="s">
-        <v>613</v>
+        <v>649</v>
       </c>
       <c r="D53" t="s">
-        <v>614</v>
+        <v>650</v>
       </c>
       <c r="E53" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>615</v>
+        <v>651</v>
       </c>
       <c r="I53" t="s">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="J53" t="s">
-        <v>617</v>
+        <v>653</v>
       </c>
       <c r="K53" t="s">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="L53" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="M53" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N53" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P53" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q53" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="R53" t="s">
-        <v>620</v>
+        <v>656</v>
       </c>
       <c r="S53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U53" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="V53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W53" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y53" t="s">
-        <v>622</v>
+        <v>658</v>
       </c>
       <c r="Z53" t="s">
-        <v>623</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="AA53"/>
+      <c r="AB53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>624</v>
+        <v>660</v>
       </c>
       <c r="B54" t="s">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="C54" t="s">
-        <v>625</v>
+        <v>661</v>
       </c>
       <c r="D54" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F54" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H54" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="I54" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="J54" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="K54" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="L54" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="M54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N54" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P54" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q54" t="s">
-        <v>631</v>
+        <v>667</v>
       </c>
       <c r="R54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U54" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="V54" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y54" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="Z54"/>
+      <c r="AA54" t="s">
+        <v>669</v>
+      </c>
+      <c r="AB54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>633</v>
+        <v>670</v>
       </c>
       <c r="B55" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="C55" t="s">
-        <v>635</v>
+        <v>672</v>
       </c>
       <c r="D55" t="s">
-        <v>636</v>
+        <v>673</v>
       </c>
       <c r="E55" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G55" t="s">
-        <v>637</v>
+        <v>674</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I55" t="s">
-        <v>638</v>
+        <v>675</v>
       </c>
       <c r="J55" t="s">
-        <v>639</v>
+        <v>676</v>
       </c>
       <c r="K55" t="s">
-        <v>640</v>
+        <v>677</v>
       </c>
       <c r="L55" t="s">
-        <v>641</v>
+        <v>678</v>
       </c>
       <c r="M55" t="s">
-        <v>642</v>
+        <v>679</v>
       </c>
       <c r="N55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q55" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="R55" t="s">
-        <v>643</v>
+        <v>680</v>
       </c>
       <c r="S55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W55" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="X55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y55" t="s">
-        <v>644</v>
+        <v>681</v>
       </c>
       <c r="Z55" t="s">
-        <v>645</v>
+        <v>682</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>646</v>
+        <v>683</v>
       </c>
       <c r="B56" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="C56" t="s">
-        <v>647</v>
+        <v>684</v>
       </c>
       <c r="D56" t="s">
-        <v>648</v>
+        <v>685</v>
       </c>
       <c r="E56" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="F56" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="J56" t="s">
-        <v>649</v>
+        <v>686</v>
       </c>
       <c r="K56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L56" t="s">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="M56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N56" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U56" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="V56" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="W56" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="X56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y56" t="s">
-        <v>651</v>
+        <v>688</v>
       </c>
       <c r="Z56" t="s">
-        <v>412</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>652</v>
+        <v>689</v>
       </c>
       <c r="B57" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="C57" t="s">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="D57" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s">
-        <v>655</v>
+        <v>692</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="I57" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="J57" t="s">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="K57" t="s">
-        <v>657</v>
+        <v>694</v>
       </c>
       <c r="L57" t="s">
-        <v>658</v>
+        <v>695</v>
       </c>
       <c r="M57" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O57" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="P57" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q57" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="R57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U57" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="V57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W57" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y57" t="s">
-        <v>659</v>
+        <v>696</v>
       </c>
       <c r="Z57" t="s">
-        <v>660</v>
+        <v>697</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>661</v>
+        <v>698</v>
       </c>
       <c r="B58" t="s">
-        <v>662</v>
+        <v>699</v>
       </c>
       <c r="C58" t="s">
-        <v>663</v>
+        <v>700</v>
       </c>
       <c r="D58" t="s">
-        <v>664</v>
+        <v>701</v>
       </c>
       <c r="E58" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I58" t="s">
-        <v>665</v>
+        <v>702</v>
       </c>
       <c r="J58" t="s">
-        <v>666</v>
+        <v>703</v>
       </c>
       <c r="K58" t="s">
-        <v>667</v>
+        <v>704</v>
       </c>
       <c r="L58" t="s">
-        <v>668</v>
+        <v>705</v>
       </c>
       <c r="M58" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N58" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q58" t="s">
-        <v>669</v>
+        <v>706</v>
       </c>
       <c r="R58" t="s">
-        <v>670</v>
+        <v>707</v>
       </c>
       <c r="S58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W58" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X58" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="Y58" t="s">
-        <v>671</v>
+        <v>708</v>
       </c>
       <c r="Z58" t="s">
-        <v>672</v>
+        <v>709</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="B59" t="s">
-        <v>662</v>
+        <v>699</v>
       </c>
       <c r="C59" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="D59" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G59" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I59" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="J59" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="K59" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="L59" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="M59" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P59" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U59" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="V59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W59" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y59" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="Z59"/>
+      <c r="AA59" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="B60" t="s">
-        <v>662</v>
+        <v>699</v>
       </c>
       <c r="C60" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
       <c r="D60" t="s">
-        <v>682</v>
+        <v>721</v>
       </c>
       <c r="E60" t="s">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I60" t="s">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="J60" t="s">
-        <v>685</v>
+        <v>724</v>
       </c>
       <c r="K60" t="s">
-        <v>686</v>
+        <v>725</v>
       </c>
       <c r="L60" t="s">
-        <v>687</v>
+        <v>726</v>
       </c>
       <c r="M60" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N60" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P60" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q60" t="s">
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="R60" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="S60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U60" t="s">
-        <v>690</v>
+        <v>729</v>
       </c>
       <c r="V60" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="W60" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X60" t="s">
-        <v>691</v>
+        <v>730</v>
       </c>
       <c r="Y60"/>
       <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="B61" t="s">
-        <v>662</v>
+        <v>699</v>
       </c>
       <c r="C61" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
       <c r="D61" t="s">
-        <v>694</v>
+        <v>733</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H61" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I61" t="s">
-        <v>695</v>
+        <v>734</v>
       </c>
       <c r="J61" t="s">
-        <v>696</v>
+        <v>735</v>
       </c>
       <c r="K61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L61" t="s">
-        <v>697</v>
+        <v>736</v>
       </c>
       <c r="M61" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N61" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U61" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="V61" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W61" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y61" t="s">
-        <v>698</v>
+        <v>737</v>
       </c>
       <c r="Z61" t="s">
-        <v>699</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="AA61"/>
+      <c r="AB61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>700</v>
+        <v>739</v>
       </c>
       <c r="B62" t="s">
-        <v>662</v>
+        <v>699</v>
       </c>
       <c r="C62" t="s">
-        <v>701</v>
+        <v>740</v>
       </c>
       <c r="D62" t="s">
-        <v>702</v>
+        <v>741</v>
       </c>
       <c r="E62" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I62" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="J62" t="s">
-        <v>703</v>
+        <v>742</v>
       </c>
       <c r="K62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L62" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="M62" t="s">
-        <v>705</v>
+        <v>744</v>
       </c>
       <c r="N62" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q62" t="s">
-        <v>706</v>
+        <v>745</v>
       </c>
       <c r="R62" t="s">
-        <v>707</v>
+        <v>746</v>
       </c>
       <c r="S62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U62" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="V62" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W62" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y62" t="s">
-        <v>708</v>
+        <v>747</v>
       </c>
       <c r="Z62" t="s">
-        <v>709</v>
+        <v>748</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="B63" t="s">
-        <v>711</v>
+        <v>751</v>
       </c>
       <c r="C63" t="s">
-        <v>712</v>
+        <v>752</v>
       </c>
       <c r="D63" t="s">
-        <v>713</v>
+        <v>753</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I63" t="s">
-        <v>714</v>
+        <v>754</v>
       </c>
       <c r="J63" t="s">
-        <v>715</v>
+        <v>755</v>
       </c>
       <c r="K63" t="s">
-        <v>716</v>
+        <v>756</v>
       </c>
       <c r="L63" t="s">
-        <v>717</v>
+        <v>757</v>
       </c>
       <c r="M63" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="N63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P63" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q63" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="R63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U63" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="V63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W63" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y63" t="s">
-        <v>718</v>
+        <v>758</v>
       </c>
       <c r="Z63"/>
+      <c r="AA63" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
       <c r="B64" t="s">
-        <v>711</v>
+        <v>751</v>
       </c>
       <c r="C64" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="D64" t="s">
-        <v>721</v>
+        <v>763</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G64" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="H64" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="I64" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="J64" t="s">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="K64" t="s">
-        <v>724</v>
+        <v>766</v>
       </c>
       <c r="L64" t="s">
-        <v>725</v>
+        <v>767</v>
       </c>
       <c r="M64" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P64" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q64" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="R64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U64" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="V64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W64" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y64" t="s">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="Z64"/>
+      <c r="AA64" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="B65" t="s">
-        <v>711</v>
+        <v>751</v>
       </c>
       <c r="C65" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="D65" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F65" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I65" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="J65" t="s">
-        <v>731</v>
+        <v>773</v>
       </c>
       <c r="K65" t="s">
-        <v>732</v>
+        <v>774</v>
       </c>
       <c r="L65" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="M65" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="N65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O65" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="P65" t="s">
-        <v>733</v>
+        <v>775</v>
       </c>
       <c r="Q65" t="s">
-        <v>734</v>
+        <v>776</v>
       </c>
       <c r="R65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U65" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="V65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y65" t="s">
-        <v>735</v>
+        <v>777</v>
       </c>
       <c r="Z65" t="s">
-        <v>539</v>
+        <v>571</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>736</v>
+        <v>778</v>
       </c>
       <c r="B66" t="s">
-        <v>737</v>
+        <v>779</v>
       </c>
       <c r="C66" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="D66" t="s">
-        <v>739</v>
+        <v>781</v>
       </c>
       <c r="E66" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="F66" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I66" t="s">
-        <v>741</v>
+        <v>783</v>
       </c>
       <c r="J66" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="K66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L66" t="s">
-        <v>743</v>
+        <v>785</v>
       </c>
       <c r="M66" t="s">
-        <v>744</v>
+        <v>786</v>
       </c>
       <c r="N66" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O66" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="P66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U66" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="V66" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="W66" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X66" t="s">
-        <v>745</v>
+        <v>787</v>
       </c>
       <c r="Y66" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="Z66" t="s">
-        <v>747</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>790</v>
+      </c>
+      <c r="AB66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>748</v>
+        <v>791</v>
       </c>
       <c r="B67" t="s">
-        <v>749</v>
+        <v>792</v>
       </c>
       <c r="C67" t="s">
-        <v>750</v>
+        <v>793</v>
       </c>
       <c r="D67" t="s">
-        <v>751</v>
+        <v>794</v>
       </c>
       <c r="E67" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="F67" t="s">
-        <v>752</v>
+        <v>795</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I67" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="J67" t="s">
-        <v>753</v>
+        <v>796</v>
       </c>
       <c r="K67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L67" t="s">
-        <v>754</v>
+        <v>797</v>
       </c>
       <c r="M67" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N67" t="s">
-        <v>755</v>
+        <v>798</v>
       </c>
       <c r="O67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P67" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U67" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="V67" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="W67" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X67" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="Y67" t="s">
-        <v>756</v>
+        <v>799</v>
       </c>
       <c r="Z67" t="s">
-        <v>757</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="AA67"/>
+      <c r="AB67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>758</v>
+        <v>801</v>
       </c>
       <c r="B68" t="s">
-        <v>749</v>
+        <v>792</v>
       </c>
       <c r="C68" t="s">
-        <v>759</v>
+        <v>802</v>
       </c>
       <c r="D68" t="s">
-        <v>760</v>
+        <v>803</v>
       </c>
       <c r="E68" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="F68" t="s">
-        <v>762</v>
+        <v>805</v>
       </c>
       <c r="G68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I68" t="s">
-        <v>763</v>
+        <v>806</v>
       </c>
       <c r="J68" t="s">
-        <v>764</v>
+        <v>807</v>
       </c>
       <c r="K68" t="s">
-        <v>765</v>
+        <v>808</v>
       </c>
       <c r="L68" t="s">
-        <v>766</v>
+        <v>809</v>
       </c>
       <c r="M68" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U68" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="V68" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="W68" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X68" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
       <c r="Y68" t="s">
-        <v>768</v>
+        <v>811</v>
       </c>
       <c r="Z68" t="s">
-        <v>769</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="AA68"/>
+      <c r="AB68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>770</v>
+        <v>813</v>
       </c>
       <c r="B69" t="s">
-        <v>771</v>
+        <v>814</v>
       </c>
       <c r="C69" t="s">
-        <v>772</v>
+        <v>815</v>
       </c>
       <c r="D69" t="s">
-        <v>773</v>
+        <v>816</v>
       </c>
       <c r="E69" t="s">
-        <v>774</v>
+        <v>817</v>
       </c>
       <c r="F69" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I69" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="J69" t="s">
-        <v>775</v>
+        <v>818</v>
       </c>
       <c r="K69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L69" t="s">
-        <v>776</v>
+        <v>819</v>
       </c>
       <c r="M69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N69" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P69" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q69" t="s">
-        <v>777</v>
+        <v>820</v>
       </c>
       <c r="R69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U69" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="V69" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="W69" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X69" t="s">
-        <v>778</v>
+        <v>821</v>
       </c>
       <c r="Y69" t="s">
-        <v>779</v>
+        <v>822</v>
       </c>
       <c r="Z69"/>
+      <c r="AA69" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>780</v>
+        <v>823</v>
       </c>
       <c r="B70" t="s">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="C70" t="s">
-        <v>782</v>
+        <v>825</v>
       </c>
       <c r="D70" t="s">
-        <v>783</v>
+        <v>826</v>
       </c>
       <c r="E70" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="H70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I70" t="s">
-        <v>784</v>
+        <v>827</v>
       </c>
       <c r="J70" t="s">
-        <v>785</v>
+        <v>828</v>
       </c>
       <c r="K70" t="s">
-        <v>786</v>
+        <v>829</v>
       </c>
       <c r="L70" t="s">
-        <v>787</v>
+        <v>830</v>
       </c>
       <c r="M70" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N70" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q70" t="s">
-        <v>788</v>
+        <v>831</v>
       </c>
       <c r="R70" t="s">
-        <v>789</v>
+        <v>832</v>
       </c>
       <c r="S70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V70" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="W70" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y70" t="s">
-        <v>790</v>
+        <v>833</v>
       </c>
       <c r="Z70" t="s">
-        <v>791</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="AA70"/>
+      <c r="AB70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>792</v>
+        <v>835</v>
       </c>
       <c r="B71" t="s">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="C71" t="s">
-        <v>782</v>
+        <v>825</v>
       </c>
       <c r="D71" t="s">
-        <v>783</v>
+        <v>826</v>
       </c>
       <c r="E71" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F71" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G71" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="H71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I71" t="s">
-        <v>784</v>
+        <v>827</v>
       </c>
       <c r="J71" t="s">
-        <v>793</v>
+        <v>836</v>
       </c>
       <c r="K71" t="s">
-        <v>794</v>
+        <v>837</v>
       </c>
       <c r="L71" t="s">
-        <v>787</v>
+        <v>830</v>
       </c>
       <c r="M71" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N71" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q71" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="R71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V71" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="W71" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="X71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y71" t="s">
-        <v>790</v>
+        <v>833</v>
       </c>
       <c r="Z71" t="s">
-        <v>791</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="AA71"/>
+      <c r="AB71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/dpo_app_data.xlsx
+++ b/data/dpo_app_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="837">
   <si>
     <t xml:space="preserve">study_author_year</t>
   </si>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">11.04 (1.4)</t>
   </si>
   <si>
-    <t xml:space="preserve">ER Program; BA Program</t>
+    <t xml:space="preserve">Emotion regulation program; Behavioral activation program</t>
   </si>
   <si>
     <t xml:space="preserve">TAU</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">15.5 (1.12)</t>
   </si>
   <si>
-    <t xml:space="preserve">CB Group</t>
+    <t xml:space="preserve">Cognitive-behavior group</t>
   </si>
   <si>
     <t xml:space="preserve">Anxiety, Depression diagnosis, Depression symptoms</t>
@@ -659,8 +659,7 @@
     <t xml:space="preserve">14.01 (1.22)</t>
   </si>
   <si>
-    <t xml:space="preserve">Interpersonal Psychotherapy-Adolescent Skills
-Training</t>
+    <t xml:space="preserve">Interpersonal Psychotherapy-Adolescent Skills Training</t>
   </si>
   <si>
     <t xml:space="preserve">66.7%</t>
@@ -1855,7 +1854,7 @@
     <t xml:space="preserve">14.43 (0.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cognitive-behavior program (CB; adapted); interpersonal psychotherapy–adolescent skills training (IPT-AST)</t>
+    <t xml:space="preserve">Cognitive-behavior program (CB; adapted); Interpersonal Psychotherapy–Adolescent Skills Training (IPT-AST)</t>
   </si>
   <si>
     <t xml:space="preserve">1% AIAN, 1% Asian, 13% Black, 2% Latinx, 79% White</t>
@@ -2168,8 +2167,7 @@
     <t xml:space="preserve">11.89 (0.33)</t>
   </si>
   <si>
-    <t xml:space="preserve">Penn Prevention
-Program</t>
+    <t xml:space="preserve">Penn Prevention Program</t>
   </si>
   <si>
     <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/12795585/</t>
@@ -2288,9 +2286,6 @@
   </si>
   <si>
     <t xml:space="preserve">10.44 (0.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penn Prevention Program</t>
   </si>
   <si>
     <t xml:space="preserve">https://psycnet.apa.org/record/2002-10530-003</t>
@@ -8115,7 +8110,7 @@
         <v>756</v>
       </c>
       <c r="L63" t="s">
-        <v>757</v>
+        <v>717</v>
       </c>
       <c r="M63" t="s">
         <v>434</v>
@@ -8154,28 +8149,28 @@
         <v>48</v>
       </c>
       <c r="Y63" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="Z63"/>
       <c r="AA63" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB63" t="s">
         <v>759</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B64" t="s">
         <v>751</v>
       </c>
       <c r="C64" t="s">
+        <v>761</v>
+      </c>
+      <c r="D64" t="s">
         <v>762</v>
-      </c>
-      <c r="D64" t="s">
-        <v>763</v>
       </c>
       <c r="E64" t="s">
         <v>55</v>
@@ -8184,7 +8179,7 @@
         <v>56</v>
       </c>
       <c r="G64" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H64" t="s">
         <v>290</v>
@@ -8193,13 +8188,13 @@
         <v>522</v>
       </c>
       <c r="J64" t="s">
+        <v>764</v>
+      </c>
+      <c r="K64" t="s">
         <v>765</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>766</v>
-      </c>
-      <c r="L64" t="s">
-        <v>767</v>
       </c>
       <c r="M64" t="s">
         <v>62</v>
@@ -8238,7 +8233,7 @@
         <v>48</v>
       </c>
       <c r="Y64" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Z64"/>
       <c r="AA64" t="s">
@@ -8250,22 +8245,22 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B65" t="s">
         <v>751</v>
       </c>
       <c r="C65" t="s">
+        <v>769</v>
+      </c>
+      <c r="D65" t="s">
         <v>770</v>
-      </c>
-      <c r="D65" t="s">
-        <v>771</v>
       </c>
       <c r="E65" t="s">
         <v>55</v>
       </c>
       <c r="F65" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -8277,10 +8272,10 @@
         <v>383</v>
       </c>
       <c r="J65" t="s">
+        <v>772</v>
+      </c>
+      <c r="K65" t="s">
         <v>773</v>
-      </c>
-      <c r="K65" t="s">
-        <v>774</v>
       </c>
       <c r="L65" t="s">
         <v>569</v>
@@ -8295,10 +8290,10 @@
         <v>373</v>
       </c>
       <c r="P65" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q65" t="s">
         <v>775</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>776</v>
       </c>
       <c r="R65" t="s">
         <v>35</v>
@@ -8322,7 +8317,7 @@
         <v>48</v>
       </c>
       <c r="Y65" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="Z65" t="s">
         <v>571</v>
@@ -8336,19 +8331,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>777</v>
+      </c>
+      <c r="B66" t="s">
         <v>778</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>779</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>780</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>781</v>
-      </c>
-      <c r="E66" t="s">
-        <v>782</v>
       </c>
       <c r="F66" t="s">
         <v>56</v>
@@ -8360,19 +8355,19 @@
         <v>74</v>
       </c>
       <c r="I66" t="s">
+        <v>782</v>
+      </c>
+      <c r="J66" t="s">
         <v>783</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" t="s">
         <v>784</v>
       </c>
-      <c r="K66" t="s">
-        <v>35</v>
-      </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>785</v>
-      </c>
-      <c r="M66" t="s">
-        <v>786</v>
       </c>
       <c r="N66" t="s">
         <v>92</v>
@@ -8405,37 +8400,37 @@
         <v>220</v>
       </c>
       <c r="X66" t="s">
+        <v>786</v>
+      </c>
+      <c r="Y66" t="s">
         <v>787</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>788</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>789</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>790</v>
       </c>
       <c r="AB66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>790</v>
+      </c>
+      <c r="B67" t="s">
         <v>791</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>792</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>793</v>
-      </c>
-      <c r="D67" t="s">
-        <v>794</v>
       </c>
       <c r="E67" t="s">
         <v>509</v>
       </c>
       <c r="F67" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G67" t="s">
         <v>35</v>
@@ -8447,19 +8442,19 @@
         <v>477</v>
       </c>
       <c r="J67" t="s">
+        <v>795</v>
+      </c>
+      <c r="K67" t="s">
+        <v>35</v>
+      </c>
+      <c r="L67" t="s">
         <v>796</v>
-      </c>
-      <c r="K67" t="s">
-        <v>35</v>
-      </c>
-      <c r="L67" t="s">
-        <v>797</v>
       </c>
       <c r="M67" t="s">
         <v>56</v>
       </c>
       <c r="N67" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O67" t="s">
         <v>42</v>
@@ -8492,32 +8487,32 @@
         <v>516</v>
       </c>
       <c r="Y67" t="s">
+        <v>798</v>
+      </c>
+      <c r="Z67" t="s">
         <v>799</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>800</v>
       </c>
       <c r="AA67"/>
       <c r="AB67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>800</v>
+      </c>
+      <c r="B68" t="s">
+        <v>791</v>
+      </c>
+      <c r="C68" t="s">
         <v>801</v>
       </c>
-      <c r="B68" t="s">
-        <v>792</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>802</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>803</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>804</v>
-      </c>
-      <c r="F68" t="s">
-        <v>805</v>
       </c>
       <c r="G68" t="s">
         <v>73</v>
@@ -8526,16 +8521,16 @@
         <v>74</v>
       </c>
       <c r="I68" t="s">
+        <v>805</v>
+      </c>
+      <c r="J68" t="s">
         <v>806</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>807</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>808</v>
-      </c>
-      <c r="L68" t="s">
-        <v>809</v>
       </c>
       <c r="M68" t="s">
         <v>56</v>
@@ -8571,32 +8566,32 @@
         <v>220</v>
       </c>
       <c r="X68" t="s">
+        <v>809</v>
+      </c>
+      <c r="Y68" t="s">
         <v>810</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>811</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>812</v>
       </c>
       <c r="AA68"/>
       <c r="AB68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>812</v>
+      </c>
+      <c r="B69" t="s">
         <v>813</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>814</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>815</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>816</v>
-      </c>
-      <c r="E69" t="s">
-        <v>817</v>
       </c>
       <c r="F69" t="s">
         <v>56</v>
@@ -8611,13 +8606,13 @@
         <v>291</v>
       </c>
       <c r="J69" t="s">
+        <v>817</v>
+      </c>
+      <c r="K69" t="s">
+        <v>35</v>
+      </c>
+      <c r="L69" t="s">
         <v>818</v>
-      </c>
-      <c r="K69" t="s">
-        <v>35</v>
-      </c>
-      <c r="L69" t="s">
-        <v>819</v>
       </c>
       <c r="M69" t="s">
         <v>40</v>
@@ -8632,7 +8627,7 @@
         <v>80</v>
       </c>
       <c r="Q69" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="R69" t="s">
         <v>35</v>
@@ -8653,10 +8648,10 @@
         <v>220</v>
       </c>
       <c r="X69" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y69" t="s">
         <v>821</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>822</v>
       </c>
       <c r="Z69"/>
       <c r="AA69" t="s">
@@ -8668,16 +8663,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>822</v>
+      </c>
+      <c r="B70" t="s">
         <v>823</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>824</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>825</v>
-      </c>
-      <c r="D70" t="s">
-        <v>826</v>
       </c>
       <c r="E70" t="s">
         <v>288</v>
@@ -8686,22 +8681,22 @@
         <v>56</v>
       </c>
       <c r="G70" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H70" t="s">
         <v>74</v>
       </c>
       <c r="I70" t="s">
+        <v>826</v>
+      </c>
+      <c r="J70" t="s">
         <v>827</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>828</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>829</v>
-      </c>
-      <c r="L70" t="s">
-        <v>830</v>
       </c>
       <c r="M70" t="s">
         <v>62</v>
@@ -8716,10 +8711,10 @@
         <v>43</v>
       </c>
       <c r="Q70" t="s">
+        <v>830</v>
+      </c>
+      <c r="R70" t="s">
         <v>831</v>
-      </c>
-      <c r="R70" t="s">
-        <v>832</v>
       </c>
       <c r="S70" t="s">
         <v>35</v>
@@ -8740,26 +8735,26 @@
         <v>35</v>
       </c>
       <c r="Y70" t="s">
+        <v>832</v>
+      </c>
+      <c r="Z70" t="s">
         <v>833</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>834</v>
       </c>
       <c r="AA70"/>
       <c r="AB70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B71" t="s">
+        <v>823</v>
+      </c>
+      <c r="C71" t="s">
         <v>824</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>825</v>
-      </c>
-      <c r="D71" t="s">
-        <v>826</v>
       </c>
       <c r="E71" t="s">
         <v>288</v>
@@ -8768,22 +8763,22 @@
         <v>56</v>
       </c>
       <c r="G71" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H71" t="s">
         <v>74</v>
       </c>
       <c r="I71" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J71" t="s">
+        <v>835</v>
+      </c>
+      <c r="K71" t="s">
         <v>836</v>
       </c>
-      <c r="K71" t="s">
-        <v>837</v>
-      </c>
       <c r="L71" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M71" t="s">
         <v>62</v>
@@ -8822,10 +8817,10 @@
         <v>35</v>
       </c>
       <c r="Y71" t="s">
+        <v>832</v>
+      </c>
+      <c r="Z71" t="s">
         <v>833</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>834</v>
       </c>
       <c r="AA71"/>
       <c r="AB71"/>

--- a/data/dpo_app_data.xlsx
+++ b/data/dpo_app_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="836">
   <si>
     <t xml:space="preserve">study_author_year</t>
   </si>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">59 students, 1 schools</t>
   </si>
   <si>
-    <t xml:space="preserve">Coping with Depression</t>
+    <t xml:space="preserve">Adolescent Coping with Depression</t>
   </si>
   <si>
     <t xml:space="preserve">Active: Control group</t>
@@ -2469,9 +2469,6 @@
   </si>
   <si>
     <t xml:space="preserve">15 students, 1 schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adolescent Coping with Depression</t>
   </si>
   <si>
     <t xml:space="preserve">40%</t>
@@ -8612,7 +8609,7 @@
         <v>35</v>
       </c>
       <c r="L69" t="s">
-        <v>818</v>
+        <v>743</v>
       </c>
       <c r="M69" t="s">
         <v>40</v>
@@ -8627,7 +8624,7 @@
         <v>80</v>
       </c>
       <c r="Q69" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="R69" t="s">
         <v>35</v>
@@ -8648,10 +8645,10 @@
         <v>220</v>
       </c>
       <c r="X69" t="s">
+        <v>819</v>
+      </c>
+      <c r="Y69" t="s">
         <v>820</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>821</v>
       </c>
       <c r="Z69"/>
       <c r="AA69" t="s">
@@ -8663,16 +8660,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>821</v>
+      </c>
+      <c r="B70" t="s">
         <v>822</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>823</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>824</v>
-      </c>
-      <c r="D70" t="s">
-        <v>825</v>
       </c>
       <c r="E70" t="s">
         <v>288</v>
@@ -8687,16 +8684,16 @@
         <v>74</v>
       </c>
       <c r="I70" t="s">
+        <v>825</v>
+      </c>
+      <c r="J70" t="s">
         <v>826</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>827</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>828</v>
-      </c>
-      <c r="L70" t="s">
-        <v>829</v>
       </c>
       <c r="M70" t="s">
         <v>62</v>
@@ -8711,10 +8708,10 @@
         <v>43</v>
       </c>
       <c r="Q70" t="s">
+        <v>829</v>
+      </c>
+      <c r="R70" t="s">
         <v>830</v>
-      </c>
-      <c r="R70" t="s">
-        <v>831</v>
       </c>
       <c r="S70" t="s">
         <v>35</v>
@@ -8735,26 +8732,26 @@
         <v>35</v>
       </c>
       <c r="Y70" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z70" t="s">
         <v>832</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>833</v>
       </c>
       <c r="AA70"/>
       <c r="AB70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B71" t="s">
+        <v>822</v>
+      </c>
+      <c r="C71" t="s">
         <v>823</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>824</v>
-      </c>
-      <c r="D71" t="s">
-        <v>825</v>
       </c>
       <c r="E71" t="s">
         <v>288</v>
@@ -8769,16 +8766,16 @@
         <v>74</v>
       </c>
       <c r="I71" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J71" t="s">
+        <v>834</v>
+      </c>
+      <c r="K71" t="s">
         <v>835</v>
       </c>
-      <c r="K71" t="s">
-        <v>836</v>
-      </c>
       <c r="L71" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M71" t="s">
         <v>62</v>
@@ -8817,10 +8814,10 @@
         <v>35</v>
       </c>
       <c r="Y71" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z71" t="s">
         <v>832</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>833</v>
       </c>
       <c r="AA71"/>
       <c r="AB71"/>
